--- a/raw_data/LINK-USD_4h_process.xlsx
+++ b/raw_data/LINK-USD_4h_process.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="196">
   <si>
     <t>Open</t>
   </si>
@@ -58,129 +58,6 @@
     <t>sell_rsi_9</t>
   </si>
   <si>
-    <t>2023-12-27 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-27 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-03 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-03 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-03 09:00:00-03:00</t>
-  </si>
-  <si>
     <t>2024-01-03 13:00:00-03:00</t>
   </si>
   <si>
@@ -599,6 +476,129 @@
   </si>
   <si>
     <t>2024-01-26 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-26 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 13:00:00-03:00</t>
   </si>
   <si>
     <t>yes</t>
@@ -1014,19 +1014,19 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>16.34411239624023</v>
+        <v>14.12284088134766</v>
       </c>
       <c r="C2">
-        <v>16.6711311340332</v>
+        <v>14.20503997802734</v>
       </c>
       <c r="D2">
-        <v>16.32291603088379</v>
+        <v>13.89861583709717</v>
       </c>
       <c r="E2">
-        <v>16.6711311340332</v>
+        <v>14.07350444793701</v>
       </c>
       <c r="F2">
-        <v>40468672</v>
+        <v>16386496</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1034,19 +1034,19 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>16.67852401733398</v>
+        <v>14.07394790649414</v>
       </c>
       <c r="C3">
-        <v>17.54370307922363</v>
+        <v>14.27064037322998</v>
       </c>
       <c r="D3">
-        <v>16.67852401733398</v>
+        <v>14.05833721160889</v>
       </c>
       <c r="E3">
-        <v>17.44194984436035</v>
+        <v>14.14968872070312</v>
       </c>
       <c r="F3">
-        <v>273129216</v>
+        <v>11787328</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1054,19 +1054,19 @@
         <v>16</v>
       </c>
       <c r="B4">
-        <v>17.43843269348145</v>
+        <v>14.15072727203369</v>
       </c>
       <c r="C4">
-        <v>17.49479293823242</v>
+        <v>14.37996673583984</v>
       </c>
       <c r="D4">
-        <v>16.77820777893066</v>
+        <v>14.03201293945312</v>
       </c>
       <c r="E4">
-        <v>16.86293792724609</v>
+        <v>14.31020641326904</v>
       </c>
       <c r="F4">
-        <v>144192064</v>
+        <v>48424960</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1074,19 +1074,19 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <v>16.86413764953613</v>
+        <v>14.31012058258057</v>
       </c>
       <c r="C5">
-        <v>17.29817008972168</v>
+        <v>14.48362445831299</v>
       </c>
       <c r="D5">
-        <v>16.86413764953613</v>
+        <v>14.29181003570557</v>
       </c>
       <c r="E5">
-        <v>17.29782676696777</v>
+        <v>14.32869243621826</v>
       </c>
       <c r="F5">
-        <v>78889344</v>
+        <v>10414784</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1094,19 +1094,19 @@
         <v>18</v>
       </c>
       <c r="B6">
-        <v>17.29914855957031</v>
+        <v>14.32587146759033</v>
       </c>
       <c r="C6">
-        <v>17.30363082885742</v>
+        <v>14.36698532104492</v>
       </c>
       <c r="D6">
-        <v>16.16463851928711</v>
+        <v>14.17495822906494</v>
       </c>
       <c r="E6">
-        <v>16.19342803955078</v>
+        <v>14.32439708709717</v>
       </c>
       <c r="F6">
-        <v>28464896</v>
+        <v>1793408</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1114,19 +1114,19 @@
         <v>19</v>
       </c>
       <c r="B7">
-        <v>16.19168853759766</v>
+        <v>14.32546997070312</v>
       </c>
       <c r="C7">
-        <v>16.4875316619873</v>
+        <v>14.67146492004394</v>
       </c>
       <c r="D7">
-        <v>16.17245483398438</v>
+        <v>14.28888130187988</v>
       </c>
       <c r="E7">
-        <v>16.4875316619873</v>
+        <v>14.67146492004394</v>
       </c>
       <c r="F7">
-        <v>4593024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1134,19 +1134,19 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>16.48515129089355</v>
+        <v>14.67208099365234</v>
       </c>
       <c r="C8">
-        <v>16.49403190612793</v>
+        <v>14.69550609588623</v>
       </c>
       <c r="D8">
-        <v>16.04095268249512</v>
+        <v>14.48885536193848</v>
       </c>
       <c r="E8">
-        <v>16.04653358459473</v>
+        <v>14.61949920654297</v>
       </c>
       <c r="F8">
-        <v>8790656</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1154,19 +1154,19 @@
         <v>21</v>
       </c>
       <c r="B9">
-        <v>16.04873847961426</v>
+        <v>14.62081146240234</v>
       </c>
       <c r="C9">
-        <v>16.1004467010498</v>
+        <v>14.75055980682373</v>
       </c>
       <c r="D9">
-        <v>15.60808944702148</v>
+        <v>14.51674747467041</v>
       </c>
       <c r="E9">
-        <v>15.94456100463867</v>
+        <v>14.55381011962891</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>2851008</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1174,19 +1174,19 @@
         <v>22</v>
       </c>
       <c r="B10">
-        <v>15.9447078704834</v>
+        <v>14.55408573150635</v>
       </c>
       <c r="C10">
-        <v>15.99972534179688</v>
+        <v>14.64299297332764</v>
       </c>
       <c r="D10">
-        <v>15.74785900115967</v>
+        <v>14.12371730804443</v>
       </c>
       <c r="E10">
-        <v>15.74785900115967</v>
+        <v>14.16237640380859</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>17179200</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1194,22 +1194,22 @@
         <v>23</v>
       </c>
       <c r="B11">
-        <v>15.74856948852539</v>
+        <v>14.1635913848877</v>
       </c>
       <c r="C11">
-        <v>16.20697593688965</v>
+        <v>14.47189140319824</v>
       </c>
       <c r="D11">
-        <v>15.74537563323975</v>
+        <v>14.07788276672363</v>
       </c>
       <c r="E11">
-        <v>16.18831443786621</v>
+        <v>14.44499683380127</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>39121376</v>
       </c>
       <c r="L11">
-        <v>44.30392273233565</v>
+        <v>58.10538719282124</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1217,22 +1217,22 @@
         <v>24</v>
       </c>
       <c r="B12">
-        <v>16.18778610229492</v>
+        <v>14.44539165496826</v>
       </c>
       <c r="C12">
-        <v>16.19492721557617</v>
+        <v>14.6052417755127</v>
       </c>
       <c r="D12">
-        <v>15.62521266937256</v>
+        <v>14.23722457885742</v>
       </c>
       <c r="E12">
-        <v>15.63570022583008</v>
+        <v>14.23722457885742</v>
       </c>
       <c r="F12">
-        <v>4041216</v>
+        <v>56958144</v>
       </c>
       <c r="L12">
-        <v>35.67661004157514</v>
+        <v>47.50252337036392</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1240,22 +1240,22 @@
         <v>25</v>
       </c>
       <c r="B13">
-        <v>15.63777542114258</v>
+        <v>14.23879814147949</v>
       </c>
       <c r="C13">
-        <v>15.6606502532959</v>
+        <v>14.25356388092041</v>
       </c>
       <c r="D13">
-        <v>15.26931762695312</v>
+        <v>13.96971607208252</v>
       </c>
       <c r="E13">
-        <v>15.60526466369629</v>
+        <v>14.01371955871582</v>
       </c>
       <c r="F13">
-        <v>29856000</v>
+        <v>33380448</v>
       </c>
       <c r="L13">
-        <v>35.25128581505584</v>
+        <v>38.91000738384037</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1263,22 +1263,22 @@
         <v>26</v>
       </c>
       <c r="B14">
-        <v>15.60380935668945</v>
+        <v>14.03229808807373</v>
       </c>
       <c r="C14">
-        <v>15.60380935668945</v>
+        <v>14.09070777893066</v>
       </c>
       <c r="D14">
-        <v>15.25601196289062</v>
+        <v>13.86431789398193</v>
       </c>
       <c r="E14">
-        <v>15.53484153747559</v>
+        <v>13.8645544052124</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>31967936</v>
       </c>
       <c r="L14">
-        <v>34.19026121389251</v>
+        <v>34.25745393990628</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1286,22 +1286,22 @@
         <v>27</v>
       </c>
       <c r="B15">
-        <v>15.53353691101074</v>
+        <v>13.86238288879394</v>
       </c>
       <c r="C15">
-        <v>15.61243534088135</v>
+        <v>14.092453956604</v>
       </c>
       <c r="D15">
-        <v>15.26395511627197</v>
+        <v>13.85768985748291</v>
       </c>
       <c r="E15">
-        <v>15.32087707519531</v>
+        <v>14.06392669677734</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>11133824</v>
       </c>
       <c r="L15">
-        <v>31.00090031050717</v>
+        <v>44.27634385484361</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1309,25 +1309,25 @@
         <v>28</v>
       </c>
       <c r="B16">
-        <v>15.32025623321533</v>
+        <v>14.06751346588135</v>
       </c>
       <c r="C16">
-        <v>15.4740743637085</v>
+        <v>14.09476280212402</v>
       </c>
       <c r="D16">
-        <v>15.31414699554443</v>
+        <v>13.83132648468018</v>
       </c>
       <c r="E16">
-        <v>15.31846809387207</v>
+        <v>13.83816814422607</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>30.96431497579831</v>
+        <v>37.078156416129</v>
       </c>
       <c r="M16">
-        <v>33.23180943693409</v>
+        <v>39.61183288323786</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1335,25 +1335,25 @@
         <v>29</v>
       </c>
       <c r="B17">
-        <v>15.31769275665283</v>
+        <v>13.8410005569458</v>
       </c>
       <c r="C17">
-        <v>15.32559204101562</v>
+        <v>13.86848640441894</v>
       </c>
       <c r="D17">
-        <v>15.08048629760742</v>
+        <v>13.26794242858887</v>
       </c>
       <c r="E17">
-        <v>15.17348670959473</v>
+        <v>13.33589935302734</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>33948320</v>
       </c>
       <c r="L17">
-        <v>28.67323254679397</v>
+        <v>26.35436320098555</v>
       </c>
       <c r="M17">
-        <v>31.49628128472152</v>
+        <v>29.92152104870376</v>
       </c>
       <c r="N17" t="s">
         <v>195</v>
@@ -1364,25 +1364,25 @@
         <v>30</v>
       </c>
       <c r="B18">
-        <v>15.17384243011475</v>
+        <v>13.3376874923706</v>
       </c>
       <c r="C18">
-        <v>15.38564300537109</v>
+        <v>13.59722805023193</v>
       </c>
       <c r="D18">
-        <v>15.14459705352783</v>
+        <v>13.28991603851318</v>
       </c>
       <c r="E18">
-        <v>15.3811206817627</v>
+        <v>13.58284282684326</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1351296</v>
       </c>
       <c r="L18">
-        <v>36.27051604350427</v>
+        <v>36.51085372822457</v>
       </c>
       <c r="M18">
-        <v>36.60273119563511</v>
+        <v>37.95765327350041</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1390,25 +1390,25 @@
         <v>31</v>
       </c>
       <c r="B19">
-        <v>15.3817081451416</v>
+        <v>13.58280849456787</v>
       </c>
       <c r="C19">
-        <v>15.4635124206543</v>
+        <v>13.63718414306641</v>
       </c>
       <c r="D19">
-        <v>15.25511074066162</v>
+        <v>13.4500789642334</v>
       </c>
       <c r="E19">
-        <v>15.26202487945557</v>
+        <v>13.63349151611328</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>33.93790973780189</v>
+        <v>38.46886309761866</v>
       </c>
       <c r="M19">
-        <v>34.99152712416748</v>
+        <v>39.49030236037614</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1416,25 +1416,25 @@
         <v>32</v>
       </c>
       <c r="B20">
-        <v>15.26252269744873</v>
+        <v>13.63421726226807</v>
       </c>
       <c r="C20">
-        <v>15.31042957305908</v>
+        <v>13.67449760437012</v>
       </c>
       <c r="D20">
-        <v>15.1099271774292</v>
+        <v>13.52192878723144</v>
       </c>
       <c r="E20">
-        <v>15.1962833404541</v>
+        <v>13.53840351104736</v>
       </c>
       <c r="F20">
-        <v>806464</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>32.6345587358053</v>
+        <v>36.11636459994447</v>
       </c>
       <c r="M20">
-        <v>34.09922953407116</v>
+        <v>37.61176252745289</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1442,31 +1442,28 @@
         <v>33</v>
       </c>
       <c r="B21">
-        <v>15.19114971160889</v>
+        <v>13.53830814361572</v>
       </c>
       <c r="C21">
-        <v>15.30702686309814</v>
+        <v>13.55661487579346</v>
       </c>
       <c r="D21">
-        <v>14.97311592102051</v>
+        <v>13.33840942382812</v>
       </c>
       <c r="E21">
-        <v>15.02096748352051</v>
+        <v>13.42731189727783</v>
       </c>
       <c r="F21">
-        <v>5455392</v>
+        <v>947168</v>
       </c>
       <c r="H21">
-        <v>15.91655540466309</v>
+        <v>14.05870895385742</v>
       </c>
       <c r="L21">
-        <v>29.26301202945382</v>
+        <v>33.42943033758906</v>
       </c>
       <c r="M21">
-        <v>31.77240852232382</v>
-      </c>
-      <c r="N21" t="s">
-        <v>195</v>
+        <v>35.48778893048356</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1474,31 +1471,31 @@
         <v>34</v>
       </c>
       <c r="B22">
-        <v>15.02293300628662</v>
+        <v>13.42665767669678</v>
       </c>
       <c r="C22">
-        <v>15.26382827758789</v>
+        <v>13.64288139343262</v>
       </c>
       <c r="D22">
-        <v>15.02293300628662</v>
+        <v>13.42002582550049</v>
       </c>
       <c r="E22">
-        <v>15.18682670593262</v>
+        <v>13.55835437774658</v>
       </c>
       <c r="F22">
-        <v>11138688</v>
+        <v>7160704</v>
       </c>
       <c r="G22">
-        <v>15.88180641900925</v>
+        <v>14.03488254547119</v>
       </c>
       <c r="H22">
-        <v>15.84234018325806</v>
+        <v>14.0329514503479</v>
       </c>
       <c r="L22">
-        <v>36.27050776857229</v>
+        <v>39.41118783906445</v>
       </c>
       <c r="M22">
-        <v>36.20739077254144</v>
+        <v>39.80590981286711</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1506,31 +1503,31 @@
         <v>35</v>
       </c>
       <c r="B23">
-        <v>15.18756008148193</v>
+        <v>13.55844497680664</v>
       </c>
       <c r="C23">
-        <v>15.42167854309082</v>
+        <v>13.7148380279541</v>
       </c>
       <c r="D23">
-        <v>15.18756008148193</v>
+        <v>13.55844497680664</v>
       </c>
       <c r="E23">
-        <v>15.34074020385742</v>
+        <v>13.65337562561035</v>
       </c>
       <c r="F23">
-        <v>2041600</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>15.83261858126818</v>
+        <v>14.00020009821112</v>
       </c>
       <c r="H23">
-        <v>15.73727970123291</v>
+        <v>14.00813579559326</v>
       </c>
       <c r="L23">
-        <v>42.24368450389863</v>
+        <v>43.54907584839517</v>
       </c>
       <c r="M23">
-        <v>40.09865049652529</v>
+        <v>42.79592336262095</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1538,31 +1535,31 @@
         <v>36</v>
       </c>
       <c r="B24">
-        <v>15.33977031707764</v>
+        <v>13.65393829345703</v>
       </c>
       <c r="C24">
-        <v>15.48153591156006</v>
+        <v>13.6893949508667</v>
       </c>
       <c r="D24">
-        <v>15.2868537902832</v>
+        <v>13.45188999176025</v>
       </c>
       <c r="E24">
-        <v>15.29519081115723</v>
+        <v>13.5379524230957</v>
       </c>
       <c r="F24">
-        <v>21056960</v>
+        <v>2169408</v>
       </c>
       <c r="G24">
-        <v>15.78376151125809</v>
+        <v>13.95817758229153</v>
       </c>
       <c r="H24">
-        <v>15.65889234542847</v>
+        <v>13.9695230960846</v>
       </c>
       <c r="L24">
-        <v>40.96536292948868</v>
+        <v>39.83167200027669</v>
       </c>
       <c r="M24">
-        <v>39.33397312988243</v>
+        <v>40.18473904883597</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1570,31 +1567,31 @@
         <v>37</v>
       </c>
       <c r="B25">
-        <v>15.29522037506104</v>
+        <v>13.53361988067627</v>
       </c>
       <c r="C25">
-        <v>15.40564727783203</v>
+        <v>13.65353298187256</v>
       </c>
       <c r="D25">
-        <v>15.24740123748779</v>
+        <v>13.45601654052734</v>
       </c>
       <c r="E25">
-        <v>15.30197906494141</v>
+        <v>13.49378776550293</v>
       </c>
       <c r="F25">
-        <v>3278240</v>
+        <v>1636704</v>
       </c>
       <c r="G25">
-        <v>15.73996310704748</v>
+        <v>13.91596032621984</v>
       </c>
       <c r="H25">
-        <v>15.55909996032715</v>
+        <v>13.92777786254883</v>
       </c>
       <c r="L25">
-        <v>41.2633623448116</v>
+        <v>38.41994158603038</v>
       </c>
       <c r="M25">
-        <v>39.51908190917285</v>
+        <v>39.19918909697136</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -1602,31 +1599,31 @@
         <v>38</v>
       </c>
       <c r="B26">
-        <v>15.30094528198242</v>
+        <v>13.4924840927124</v>
       </c>
       <c r="C26">
-        <v>15.30094528198242</v>
+        <v>13.58846759796143</v>
       </c>
       <c r="D26">
-        <v>14.90145683288574</v>
+        <v>13.35256767272949</v>
       </c>
       <c r="E26">
-        <v>14.94474792480469</v>
+        <v>13.57767200469971</v>
       </c>
       <c r="F26">
-        <v>24354528</v>
+        <v>5102528</v>
       </c>
       <c r="G26">
-        <v>15.66767081775268</v>
+        <v>13.88520684244528</v>
       </c>
       <c r="H26">
-        <v>15.49666595458984</v>
+        <v>13.89044160842895</v>
       </c>
       <c r="L26">
-        <v>31.7691680012297</v>
+        <v>42.75522144975351</v>
       </c>
       <c r="M26">
-        <v>33.69276573370433</v>
+        <v>42.10360748867951</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -1634,31 +1631,31 @@
         <v>39</v>
       </c>
       <c r="B27">
-        <v>14.94692802429199</v>
+        <v>13.57822513580322</v>
       </c>
       <c r="C27">
-        <v>15.18840408325195</v>
+        <v>13.59455013275146</v>
       </c>
       <c r="D27">
-        <v>14.9124755859375</v>
+        <v>13.05752182006836</v>
       </c>
       <c r="E27">
-        <v>14.93124961853027</v>
+        <v>13.13942718505859</v>
       </c>
       <c r="F27">
-        <v>6198080</v>
+        <v>21109440</v>
       </c>
       <c r="G27">
-        <v>15.60072343600519</v>
+        <v>13.81740869177377</v>
       </c>
       <c r="H27">
-        <v>15.41885185241699</v>
+        <v>13.81383972167969</v>
       </c>
       <c r="L27">
-        <v>31.46144871850882</v>
+        <v>30.2418499153981</v>
       </c>
       <c r="M27">
-        <v>33.49183756321061</v>
+        <v>33.18474616613425</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -1666,31 +1663,34 @@
         <v>40</v>
       </c>
       <c r="B28">
-        <v>14.931471824646</v>
+        <v>13.14121437072754</v>
       </c>
       <c r="C28">
-        <v>15.20113658905029</v>
+        <v>13.34230613708496</v>
       </c>
       <c r="D28">
-        <v>14.87428760528564</v>
+        <v>12.64888763427734</v>
       </c>
       <c r="E28">
-        <v>15.20113658905029</v>
+        <v>12.84166622161865</v>
       </c>
       <c r="F28">
-        <v>5574080</v>
+        <v>82138912</v>
       </c>
       <c r="G28">
-        <v>15.56439735900929</v>
+        <v>13.72870483085057</v>
       </c>
       <c r="H28">
-        <v>15.37658200263977</v>
+        <v>13.72494807243347</v>
       </c>
       <c r="L28">
-        <v>43.72275779977744</v>
+        <v>24.71321492910596</v>
       </c>
       <c r="M28">
-        <v>41.06017262781712</v>
+        <v>28.7314347158394</v>
+      </c>
+      <c r="N28" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1698,31 +1698,31 @@
         <v>41</v>
       </c>
       <c r="B29">
-        <v>15.20178413391113</v>
+        <v>12.84323978424072</v>
       </c>
       <c r="C29">
-        <v>15.33285045623779</v>
+        <v>13.53779792785644</v>
       </c>
       <c r="D29">
-        <v>15.14909839630127</v>
+        <v>12.81392192840576</v>
       </c>
       <c r="E29">
-        <v>15.30213165283203</v>
+        <v>13.47822856903076</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>37161920</v>
       </c>
       <c r="G29">
-        <v>15.54055502208409</v>
+        <v>13.70593426159423</v>
       </c>
       <c r="H29">
-        <v>15.34446053504944</v>
+        <v>13.67116899490356</v>
       </c>
       <c r="L29">
-        <v>47.66433821917658</v>
+        <v>47.70583653510048</v>
       </c>
       <c r="M29">
-        <v>43.64459726541685</v>
+        <v>45.55329556242317</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1730,31 +1730,31 @@
         <v>42</v>
       </c>
       <c r="B30">
-        <v>15.30157375335693</v>
+        <v>13.47773742675781</v>
       </c>
       <c r="C30">
-        <v>15.30516910552978</v>
+        <v>13.54892063140869</v>
       </c>
       <c r="D30">
-        <v>15.20321178436279</v>
+        <v>13.2841739654541</v>
       </c>
       <c r="E30">
-        <v>15.30500316619873</v>
+        <v>13.44727611541748</v>
       </c>
       <c r="F30">
-        <v>756352</v>
+        <v>15135360</v>
       </c>
       <c r="G30">
-        <v>15.5191412170036</v>
+        <v>13.68241988466907</v>
       </c>
       <c r="H30">
-        <v>15.32231774330139</v>
+        <v>13.63541398048401</v>
       </c>
       <c r="L30">
-        <v>47.78132227439876</v>
+        <v>46.9219513401907</v>
       </c>
       <c r="M30">
-        <v>43.72015923173709</v>
+        <v>44.99713561800446</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -1762,34 +1762,34 @@
         <v>43</v>
       </c>
       <c r="B31">
-        <v>15.3040246963501</v>
+        <v>13.44900798797607</v>
       </c>
       <c r="C31">
-        <v>15.5092830657959</v>
+        <v>13.81386375427246</v>
       </c>
       <c r="D31">
-        <v>15.23002910614014</v>
+        <v>13.44900798797607</v>
       </c>
       <c r="E31">
-        <v>15.47954082489014</v>
+        <v>13.61848449707031</v>
       </c>
       <c r="F31">
-        <v>26116960</v>
+        <v>53349728</v>
       </c>
       <c r="G31">
-        <v>15.51554118135692</v>
+        <v>13.67660757670554</v>
       </c>
       <c r="H31">
-        <v>15.28687906265259</v>
+        <v>13.59408836364746</v>
       </c>
       <c r="I31">
-        <v>15.68732182184855</v>
+        <v>13.85068012873332</v>
       </c>
       <c r="L31">
-        <v>54.70462936482993</v>
+        <v>51.84572682482838</v>
       </c>
       <c r="M31">
-        <v>48.26111955382418</v>
+        <v>48.72612118266735</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -1797,1732 +1797,1735 @@
         <v>44</v>
       </c>
       <c r="B32">
-        <v>15.47978401184082</v>
+        <v>13.61895275115967</v>
       </c>
       <c r="C32">
-        <v>15.55992984771728</v>
+        <v>14.3809757232666</v>
       </c>
       <c r="D32">
-        <v>15.4051399230957</v>
+        <v>13.55726909637451</v>
       </c>
       <c r="E32">
-        <v>15.53411865234375</v>
+        <v>14.38029098510742</v>
       </c>
       <c r="F32">
-        <v>3596064</v>
+        <v>75694240</v>
       </c>
       <c r="G32">
-        <v>15.51723004235572</v>
+        <v>13.74057879565117</v>
       </c>
       <c r="H32">
-        <v>15.28179998397827</v>
+        <v>13.60124168395996</v>
       </c>
       <c r="I32">
-        <v>15.64942140579224</v>
+        <v>13.860906346639</v>
       </c>
       <c r="L32">
-        <v>56.72310468022678</v>
+        <v>67.11583898112862</v>
       </c>
       <c r="M32">
-        <v>49.62973324253551</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
+        <v>61.29893840047977</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B33">
-        <v>15.53764724731445</v>
+        <v>14.38099765777588</v>
       </c>
       <c r="C33">
-        <v>15.82629776000977</v>
+        <v>14.38736248016357</v>
       </c>
       <c r="D33">
-        <v>15.53073024749756</v>
+        <v>14.14009761810303</v>
       </c>
       <c r="E33">
-        <v>15.73588943481445</v>
+        <v>14.15730094909668</v>
       </c>
       <c r="F33">
-        <v>61231712</v>
+        <v>13492800</v>
       </c>
       <c r="G33">
-        <v>15.53710816894288</v>
+        <v>13.77846262778258</v>
       </c>
       <c r="H33">
-        <v>15.28833122253418</v>
+        <v>13.608420753479</v>
       </c>
       <c r="I33">
-        <v>15.59255272547404</v>
+        <v>13.86116008758545</v>
       </c>
       <c r="L33">
-        <v>63.48982328502069</v>
+        <v>60.76998814606409</v>
       </c>
       <c r="M33">
-        <v>54.42904237912708</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
+        <v>56.90069298348165</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B34">
-        <v>15.7360429763794</v>
+        <v>14.15772914886475</v>
       </c>
       <c r="C34">
-        <v>15.91832160949707</v>
+        <v>14.24267196655273</v>
       </c>
       <c r="D34">
-        <v>15.73149871826172</v>
+        <v>13.92824935913086</v>
       </c>
       <c r="E34">
-        <v>15.89373874664307</v>
+        <v>13.99860382080078</v>
       </c>
       <c r="F34">
-        <v>15689888</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>15.56952913055199</v>
+        <v>13.79847546351151</v>
       </c>
       <c r="H34">
-        <v>15.30627608299255</v>
+        <v>13.61512322425842</v>
       </c>
       <c r="I34">
-        <v>15.56024608612061</v>
+        <v>13.85077333450317</v>
       </c>
       <c r="L34">
-        <v>67.90632503330423</v>
+        <v>56.4933885199778</v>
       </c>
       <c r="M34">
-        <v>57.81536165164079</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
+        <v>53.93474565439448</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B35">
-        <v>15.89304733276367</v>
+        <v>13.9976863861084</v>
       </c>
       <c r="C35">
-        <v>16.04694938659668</v>
+        <v>14.15718460083008</v>
       </c>
       <c r="D35">
-        <v>15.85720348358154</v>
+        <v>13.95458221435547</v>
       </c>
       <c r="E35">
-        <v>15.88594627380371</v>
+        <v>14.05052089691162</v>
       </c>
       <c r="F35">
-        <v>51711680</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>15.59829432539305</v>
+        <v>13.8213886847297</v>
       </c>
       <c r="H35">
-        <v>15.33452954292297</v>
+        <v>13.61445293426514</v>
       </c>
       <c r="I35">
-        <v>15.51318340301514</v>
+        <v>13.84150094985962</v>
       </c>
       <c r="L35">
-        <v>67.45316465727228</v>
+        <v>57.59177016548607</v>
       </c>
       <c r="M35">
-        <v>57.58785821476317</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
+        <v>54.7654415695846</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B36">
-        <v>15.88412761688232</v>
+        <v>14.04991245269775</v>
       </c>
       <c r="C36">
-        <v>15.96075820922852</v>
+        <v>14.13723087310791</v>
       </c>
       <c r="D36">
-        <v>15.36137580871582</v>
+        <v>13.74380493164062</v>
       </c>
       <c r="E36">
-        <v>15.40345478057861</v>
+        <v>13.8124589920044</v>
       </c>
       <c r="F36">
-        <v>43222464</v>
+        <v>21836832</v>
       </c>
       <c r="G36">
-        <v>15.58058163950083</v>
+        <v>13.82057689448194</v>
       </c>
       <c r="H36">
-        <v>15.3387788772583</v>
+        <v>13.61316747665405</v>
       </c>
       <c r="I36">
-        <v>15.4868509610494</v>
+        <v>13.82443634668986</v>
       </c>
       <c r="L36">
-        <v>46.0479735574611</v>
+        <v>50.95553761103996</v>
       </c>
       <c r="M36">
-        <v>45.61819656216029</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
+        <v>50.28736189432772</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B37">
-        <v>15.40263080596924</v>
+        <v>13.81265544891357</v>
       </c>
       <c r="C37">
-        <v>15.42196941375732</v>
+        <v>13.86919593811035</v>
       </c>
       <c r="D37">
-        <v>15.18108463287354</v>
+        <v>13.44382572174072</v>
       </c>
       <c r="E37">
-        <v>15.22346687316894</v>
+        <v>13.58632850646973</v>
       </c>
       <c r="F37">
-        <v>13014848</v>
+        <v>27592800</v>
       </c>
       <c r="G37">
-        <v>15.54811666074339</v>
+        <v>13.79928158648083</v>
       </c>
       <c r="H37">
-        <v>15.34127788543701</v>
+        <v>13.62568893432617</v>
       </c>
       <c r="I37">
-        <v>15.44471546808879</v>
+        <v>13.78826513290405</v>
       </c>
       <c r="L37">
-        <v>40.63623912845186</v>
+        <v>45.36900707277893</v>
       </c>
       <c r="M37">
-        <v>42.10260610420999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
+        <v>46.40575987290736</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B38">
-        <v>15.22404861450195</v>
+        <v>13.58317279815674</v>
       </c>
       <c r="C38">
-        <v>15.29214572906494</v>
+        <v>13.70812606811523</v>
       </c>
       <c r="D38">
-        <v>15.11812400817871</v>
+        <v>13.47390937805176</v>
       </c>
       <c r="E38">
-        <v>15.16704940795898</v>
+        <v>13.64726829528809</v>
       </c>
       <c r="F38">
-        <v>9594240</v>
+        <v>3934784</v>
       </c>
       <c r="G38">
-        <v>15.51347418321753</v>
+        <v>13.7854621963724</v>
       </c>
       <c r="H38">
-        <v>15.33057432174683</v>
+        <v>13.62891020774841</v>
       </c>
       <c r="I38">
-        <v>15.4153993288676</v>
+        <v>13.75585743586222</v>
       </c>
       <c r="L38">
-        <v>39.01917658281414</v>
+        <v>47.12645932697578</v>
       </c>
       <c r="M38">
-        <v>41.03509947474281</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
+        <v>47.58004962533817</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B39">
-        <v>15.16578102111816</v>
+        <v>13.64739418029785</v>
       </c>
       <c r="C39">
-        <v>15.37306880950928</v>
+        <v>13.80154705047607</v>
       </c>
       <c r="D39">
-        <v>15.16578102111816</v>
+        <v>13.3956823348999</v>
       </c>
       <c r="E39">
-        <v>15.29015922546387</v>
+        <v>13.70561122894287</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>116745312</v>
       </c>
       <c r="G39">
-        <v>15.49317282342174</v>
+        <v>13.77820301751517</v>
       </c>
       <c r="H39">
-        <v>15.33198103904724</v>
+        <v>13.63251619338989</v>
       </c>
       <c r="I39">
-        <v>15.39358593622844</v>
+        <v>13.72758413950602</v>
       </c>
       <c r="L39">
-        <v>44.44616614893479</v>
+        <v>48.89709760357946</v>
       </c>
       <c r="M39">
-        <v>44.3508650666056</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
+        <v>48.73809061872075</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B40">
-        <v>15.29090023040772</v>
+        <v>13.70612144470215</v>
       </c>
       <c r="C40">
-        <v>15.548996925354</v>
+        <v>13.94661998748779</v>
       </c>
       <c r="D40">
-        <v>15.28341865539551</v>
+        <v>13.59514045715332</v>
       </c>
       <c r="E40">
-        <v>15.33748054504394</v>
+        <v>13.64061450958252</v>
       </c>
       <c r="F40">
-        <v>7392288</v>
+        <v>3244928</v>
       </c>
       <c r="G40">
-        <v>15.47901897993285</v>
+        <v>13.76569497133947</v>
       </c>
       <c r="H40">
-        <v>15.33904089927673</v>
+        <v>13.63762674331665</v>
       </c>
       <c r="I40">
-        <v>15.37990665435791</v>
+        <v>13.71019207636515</v>
       </c>
       <c r="L40">
-        <v>46.50488257213311</v>
+        <v>46.92751278857407</v>
       </c>
       <c r="M40">
-        <v>45.61677854176173</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14">
+        <v>47.47967832385125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B41">
-        <v>15.33606910705566</v>
+        <v>13.64072036743164</v>
       </c>
       <c r="C41">
-        <v>15.53371906280518</v>
+        <v>13.7839879989624</v>
       </c>
       <c r="D41">
-        <v>14.96140766143799</v>
+        <v>13.62428379058838</v>
       </c>
       <c r="E41">
-        <v>14.96373271942139</v>
+        <v>13.67896556854248</v>
       </c>
       <c r="F41">
-        <v>15089184</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>15.43217477443181</v>
+        <v>13.75781048017611</v>
       </c>
       <c r="H41">
-        <v>15.33617916107178</v>
+        <v>13.65020942687988</v>
       </c>
       <c r="I41">
-        <v>15.33908726374308</v>
+        <v>13.68465770085653</v>
       </c>
       <c r="L41">
-        <v>34.98518617530069</v>
+        <v>48.30961393706112</v>
       </c>
       <c r="M41">
-        <v>38.22142427746325</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14">
+        <v>48.3274616003453</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B42">
-        <v>14.9619836807251</v>
+        <v>13.680344581604</v>
       </c>
       <c r="C42">
-        <v>14.9619836807251</v>
+        <v>14.43797969818115</v>
       </c>
       <c r="D42">
-        <v>13.30914878845215</v>
+        <v>13.60991859436035</v>
       </c>
       <c r="E42">
-        <v>14.11273384094238</v>
+        <v>14.23763465881348</v>
       </c>
       <c r="F42">
-        <v>381798592</v>
+        <v>40205088</v>
       </c>
       <c r="G42">
-        <v>15.31222559866004</v>
+        <v>13.80143086005224</v>
       </c>
       <c r="H42">
-        <v>15.28247451782227</v>
+        <v>13.68417344093323</v>
       </c>
       <c r="I42">
-        <v>15.28832171758016</v>
+        <v>13.6846713701884</v>
       </c>
       <c r="L42">
-        <v>21.4039510920407</v>
+        <v>63.77120248520832</v>
       </c>
       <c r="M42">
-        <v>27.34927896300596</v>
-      </c>
-      <c r="N42" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14">
+        <v>58.76859354608818</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B43">
-        <v>14.12284088134766</v>
+        <v>14.23993015289307</v>
       </c>
       <c r="C43">
-        <v>14.20503997802734</v>
+        <v>14.34388065338135</v>
       </c>
       <c r="D43">
-        <v>13.89861583709717</v>
+        <v>13.71937465667725</v>
       </c>
       <c r="E43">
-        <v>14.07350444793701</v>
+        <v>14.25957107543945</v>
       </c>
       <c r="F43">
-        <v>44278464</v>
+        <v>13435648</v>
       </c>
       <c r="G43">
-        <v>15.19961458495795</v>
+        <v>13.84307997054198</v>
       </c>
       <c r="H43">
-        <v>15.21911273002624</v>
+        <v>13.71448321342468</v>
       </c>
       <c r="I43">
-        <v>15.23726304372152</v>
+        <v>13.69286642074585</v>
       </c>
       <c r="L43">
-        <v>20.98154739109997</v>
+        <v>64.24365806511481</v>
       </c>
       <c r="M43">
-        <v>26.96844854555834</v>
-      </c>
-      <c r="N43" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14">
+        <v>59.11790805417707</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B44">
-        <v>14.07394790649414</v>
+        <v>14.26231479644775</v>
       </c>
       <c r="C44">
-        <v>14.27064037322998</v>
+        <v>14.30978965759277</v>
       </c>
       <c r="D44">
-        <v>14.05833721160889</v>
+        <v>14.03209686279297</v>
       </c>
       <c r="E44">
-        <v>14.14968872070312</v>
+        <v>14.30978965759277</v>
       </c>
       <c r="F44">
-        <v>11787328</v>
+        <v>28237568</v>
       </c>
       <c r="G44">
-        <v>15.1041667791166</v>
+        <v>13.88550812391023</v>
       </c>
       <c r="H44">
-        <v>15.16183762550354</v>
+        <v>13.75307507514954</v>
       </c>
       <c r="I44">
-        <v>15.19109128316243</v>
+        <v>13.70770759582519</v>
       </c>
       <c r="L44">
-        <v>24.24769549769325</v>
+        <v>65.40554751483135</v>
       </c>
       <c r="M44">
-        <v>29.03510243253296</v>
-      </c>
-      <c r="N44" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14">
+        <v>59.95433389310895</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B45">
-        <v>14.15072727203369</v>
+        <v>14.31180667877197</v>
       </c>
       <c r="C45">
-        <v>14.37996673583984</v>
+        <v>15.31024742126465</v>
       </c>
       <c r="D45">
-        <v>14.03201293945312</v>
+        <v>14.11222648620606</v>
       </c>
       <c r="E45">
-        <v>14.31020641326904</v>
+        <v>15.02316570281982</v>
       </c>
       <c r="F45">
-        <v>48424960</v>
+        <v>106442176</v>
       </c>
       <c r="G45">
-        <v>15.03198856403955</v>
+        <v>13.98893154017474</v>
       </c>
       <c r="H45">
-        <v>15.11224899291992</v>
+        <v>13.82954397201538</v>
       </c>
       <c r="I45">
-        <v>15.15740226109823</v>
+        <v>13.73968222935994</v>
       </c>
       <c r="L45">
-        <v>31.00729025500889</v>
+        <v>77.23000562769884</v>
       </c>
       <c r="M45">
-        <v>33.31679937190147</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14">
+        <v>69.500446781235</v>
+      </c>
+      <c r="O45" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B46">
-        <v>14.31012058258057</v>
+        <v>15.03515434265137</v>
       </c>
       <c r="C46">
-        <v>14.48362445831299</v>
+        <v>15.07282257080078</v>
       </c>
       <c r="D46">
-        <v>14.29181003570557</v>
+        <v>14.83450794219971</v>
       </c>
       <c r="E46">
-        <v>14.32869243621826</v>
+        <v>14.91011810302734</v>
       </c>
       <c r="F46">
-        <v>10414784</v>
+        <v>49495168</v>
       </c>
       <c r="G46">
-        <v>14.96805255241943</v>
+        <v>14.07267577316134</v>
       </c>
       <c r="H46">
-        <v>15.0814462184906</v>
+        <v>13.89616627693176</v>
       </c>
       <c r="I46">
-        <v>15.12440973917643</v>
+        <v>13.77541389465332</v>
       </c>
       <c r="L46">
-        <v>31.79580353143737</v>
+        <v>72.79425389194269</v>
       </c>
       <c r="M46">
-        <v>33.81208565851197</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14">
+        <v>66.78358057926727</v>
+      </c>
+      <c r="O46" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B47">
-        <v>14.32587146759033</v>
+        <v>14.98251628875732</v>
       </c>
       <c r="C47">
-        <v>14.36698532104492</v>
+        <v>14.98251628875732</v>
       </c>
       <c r="D47">
-        <v>14.17495822906494</v>
+        <v>14.63343143463135</v>
       </c>
       <c r="E47">
-        <v>14.32439708709717</v>
+        <v>14.84084987640381</v>
       </c>
       <c r="F47">
-        <v>1793408</v>
+        <v>39163008</v>
       </c>
       <c r="G47">
-        <v>14.90953841920832</v>
+        <v>14.14250978254702</v>
       </c>
       <c r="H47">
-        <v>15.05110359191895</v>
+        <v>13.98123741149902</v>
       </c>
       <c r="I47">
-        <v>15.09610675175985</v>
+        <v>13.8255789120992</v>
       </c>
       <c r="L47">
-        <v>31.70109533225632</v>
+        <v>70.02195137103254</v>
       </c>
       <c r="M47">
-        <v>33.74936002262201</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14">
+        <v>65.10420776028423</v>
+      </c>
+      <c r="O47" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B48">
-        <v>14.32546997070312</v>
+        <v>14.83956718444824</v>
       </c>
       <c r="C48">
-        <v>14.67146492004394</v>
+        <v>15.32992362976074</v>
       </c>
       <c r="D48">
-        <v>14.28888130187988</v>
+        <v>14.80368995666504</v>
       </c>
       <c r="E48">
-        <v>14.67146492004394</v>
+        <v>15.32992362976074</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>17178816</v>
       </c>
       <c r="G48">
-        <v>14.88789537382974</v>
+        <v>14.25045649593009</v>
       </c>
       <c r="H48">
-        <v>15.02462000846863</v>
+        <v>14.10565028190613</v>
       </c>
       <c r="I48">
-        <v>15.07245155970256</v>
+        <v>13.88381493886312</v>
       </c>
       <c r="L48">
-        <v>46.25354264244785</v>
+        <v>76.98435849626927</v>
       </c>
       <c r="M48">
-        <v>42.95750601705284</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14">
+        <v>70.70550269098321</v>
+      </c>
+      <c r="O48" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B49">
-        <v>14.67208099365234</v>
+        <v>15.3285083770752</v>
       </c>
       <c r="C49">
-        <v>14.69550609588623</v>
+        <v>15.65693378448486</v>
       </c>
       <c r="D49">
-        <v>14.48885536193848</v>
+        <v>14.94981002807617</v>
       </c>
       <c r="E49">
-        <v>14.61949920654297</v>
+        <v>14.99025440216064</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>88384640</v>
       </c>
       <c r="G49">
-        <v>14.86349572225821</v>
+        <v>14.31771085104196</v>
       </c>
       <c r="H49">
-        <v>14.99048838615417</v>
+        <v>14.18125157356262</v>
       </c>
       <c r="I49">
-        <v>15.05103403727214</v>
+        <v>13.92904036839803</v>
       </c>
       <c r="L49">
-        <v>44.65100375868123</v>
+        <v>65.16014029631567</v>
       </c>
       <c r="M49">
-        <v>42.01587078173635</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14">
+        <v>63.12678733241554</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B50">
-        <v>14.62081146240234</v>
+        <v>14.99648189544678</v>
       </c>
       <c r="C50">
-        <v>14.75055980682373</v>
+        <v>15.119384765625</v>
       </c>
       <c r="D50">
-        <v>14.51674747467041</v>
+        <v>14.75813007354736</v>
       </c>
       <c r="E50">
-        <v>14.55381011962891</v>
+        <v>15.119384765625</v>
       </c>
       <c r="F50">
-        <v>2851008</v>
+        <v>34156224</v>
       </c>
       <c r="G50">
-        <v>14.83534248565555</v>
+        <v>14.39059029782223</v>
       </c>
       <c r="H50">
-        <v>14.95292873382568</v>
+        <v>14.264857006073</v>
       </c>
       <c r="I50">
-        <v>15.02961826324463</v>
+        <v>13.98173974355062</v>
       </c>
       <c r="L50">
-        <v>42.55430550096764</v>
+        <v>67.30767615762724</v>
       </c>
       <c r="M50">
-        <v>40.79842929018726</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14">
+        <v>64.67688215333145</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B51">
-        <v>14.55408573150635</v>
+        <v>15.11851787567139</v>
       </c>
       <c r="C51">
-        <v>14.64299297332764</v>
+        <v>15.17152500152588</v>
       </c>
       <c r="D51">
-        <v>14.12371730804443</v>
+        <v>14.86525058746338</v>
       </c>
       <c r="E51">
-        <v>14.16237640380859</v>
+        <v>15.034987449646</v>
       </c>
       <c r="F51">
-        <v>17179200</v>
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>14.77416375094219</v>
+        <v>14.44917185707894</v>
       </c>
       <c r="H51">
-        <v>14.88707051277161</v>
+        <v>14.33568215370178</v>
       </c>
       <c r="I51">
-        <v>15.00099856058756</v>
+        <v>14.03532892862956</v>
       </c>
       <c r="L51">
-        <v>32.36583394329121</v>
+        <v>64.38936912581354</v>
       </c>
       <c r="M51">
-        <v>34.40162111812159</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14">
+        <v>62.81814766027596</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B52">
-        <v>14.1635913848877</v>
+        <v>15.03119087219238</v>
       </c>
       <c r="C52">
-        <v>14.47189140319824</v>
+        <v>15.04993629455566</v>
       </c>
       <c r="D52">
-        <v>14.07788276672363</v>
+        <v>14.77085971832275</v>
       </c>
       <c r="E52">
-        <v>14.44499683380127</v>
+        <v>14.83450794219971</v>
       </c>
       <c r="F52">
-        <v>39121376</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>14.74423948574756</v>
+        <v>14.48420241027173</v>
       </c>
       <c r="H52">
-        <v>14.83261442184448</v>
+        <v>14.3583930015564</v>
       </c>
       <c r="I52">
-        <v>14.97627089818319</v>
+        <v>14.077867380778</v>
       </c>
       <c r="L52">
-        <v>43.37748690551372</v>
+        <v>57.70343731277468</v>
       </c>
       <c r="M52">
-        <v>41.52988600983206</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14">
+        <v>58.51615099869627</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B53">
-        <v>14.44539165496826</v>
+        <v>14.83365821838379</v>
       </c>
       <c r="C53">
-        <v>14.6052417755127</v>
+        <v>14.97818756103516</v>
       </c>
       <c r="D53">
-        <v>14.23722457885742</v>
+        <v>14.73576164245606</v>
       </c>
       <c r="E53">
-        <v>14.23722457885742</v>
+        <v>14.75264739990234</v>
       </c>
       <c r="F53">
-        <v>56958144</v>
+        <v>0</v>
       </c>
       <c r="G53">
-        <v>14.69814722148482</v>
+        <v>14.50860650023815</v>
       </c>
       <c r="H53">
-        <v>14.75768117904663</v>
+        <v>14.38816032409668</v>
       </c>
       <c r="I53">
-        <v>14.93948704401652</v>
+        <v>14.11450977325439</v>
       </c>
       <c r="L53">
-        <v>38.2296662736811</v>
+        <v>55.07637557525801</v>
       </c>
       <c r="M53">
-        <v>38.2400248313449</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14">
+        <v>56.8054876544083</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B54">
-        <v>14.23879814147949</v>
+        <v>14.75488567352295</v>
       </c>
       <c r="C54">
-        <v>14.25356388092041</v>
+        <v>14.9908275604248</v>
       </c>
       <c r="D54">
-        <v>13.96971607208252</v>
+        <v>14.67370510101318</v>
       </c>
       <c r="E54">
-        <v>14.01371955871582</v>
+        <v>14.96279335021973</v>
       </c>
       <c r="F54">
-        <v>33380448</v>
+        <v>142976</v>
       </c>
       <c r="G54">
-        <v>14.63592652486945</v>
+        <v>14.54989621387284</v>
       </c>
       <c r="H54">
-        <v>14.66368021965027</v>
+        <v>14.43636980056763</v>
       </c>
       <c r="I54">
-        <v>14.89677133560181</v>
+        <v>14.1620044708252</v>
       </c>
       <c r="L54">
-        <v>33.42867967195956</v>
+        <v>60.29666427072279</v>
       </c>
       <c r="M54">
-        <v>35.02571148299441</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14">
+        <v>60.0354318103421</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B55">
-        <v>14.03229808807373</v>
+        <v>14.96354389190674</v>
       </c>
       <c r="C55">
-        <v>14.09070777893066</v>
+        <v>15.28156089782715</v>
       </c>
       <c r="D55">
-        <v>13.86431789398193</v>
+        <v>14.7696590423584</v>
       </c>
       <c r="E55">
-        <v>13.8645544052124</v>
+        <v>14.7696590423584</v>
       </c>
       <c r="F55">
-        <v>31967936</v>
+        <v>0</v>
       </c>
       <c r="G55">
-        <v>14.56580178671881</v>
+        <v>14.56987465282607</v>
       </c>
       <c r="H55">
-        <v>14.5626106262207</v>
+        <v>14.47232670783997</v>
       </c>
       <c r="I55">
-        <v>14.84885718027751</v>
+        <v>14.20453351338704</v>
       </c>
       <c r="L55">
-        <v>30.54830050688982</v>
+        <v>53.82927251356568</v>
       </c>
       <c r="M55">
-        <v>33.0302355357443</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14">
+        <v>55.89839963733296</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B56">
-        <v>13.86238288879394</v>
+        <v>14.77275657653809</v>
       </c>
       <c r="C56">
-        <v>14.092453956604</v>
+        <v>14.90487670898438</v>
       </c>
       <c r="D56">
-        <v>13.85768985748291</v>
+        <v>14.12762832641602</v>
       </c>
       <c r="E56">
-        <v>14.06392669677734</v>
+        <v>14.31389713287354</v>
       </c>
       <c r="F56">
-        <v>11133824</v>
+        <v>30520672</v>
       </c>
       <c r="G56">
-        <v>14.52017677854231</v>
+        <v>14.54660396919402</v>
       </c>
       <c r="H56">
-        <v>14.49563422203064</v>
+        <v>14.49739861488342</v>
       </c>
       <c r="I56">
-        <v>14.8194964726766</v>
+        <v>14.22907435099284</v>
       </c>
       <c r="L56">
-        <v>38.51453104785212</v>
+        <v>41.89856600734277</v>
       </c>
       <c r="M56">
-        <v>38.10587822116469</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14">
+        <v>47.56810451701151</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B57">
-        <v>14.06751346588135</v>
+        <v>14.31467533111572</v>
       </c>
       <c r="C57">
-        <v>14.09476280212402</v>
+        <v>14.43203830718994</v>
       </c>
       <c r="D57">
-        <v>13.83132648468018</v>
+        <v>13.7658166885376</v>
       </c>
       <c r="E57">
-        <v>13.83816814422607</v>
+        <v>14.13436889648438</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>56091936</v>
       </c>
       <c r="G57">
-        <v>14.45817599360447</v>
+        <v>14.50912805349314</v>
       </c>
       <c r="H57">
-        <v>14.4263692855835</v>
+        <v>14.52480063438415</v>
       </c>
       <c r="I57">
-        <v>14.78306042353312</v>
+        <v>14.26223907470703</v>
       </c>
       <c r="L57">
-        <v>33.60435078295614</v>
+        <v>38.15138068459572</v>
       </c>
       <c r="M57">
-        <v>34.88200602317225</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14">
+        <v>44.73974912078648</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B58">
-        <v>13.8410005569458</v>
+        <v>14.1313886642456</v>
       </c>
       <c r="C58">
-        <v>13.86848640441894</v>
+        <v>14.1882381439209</v>
       </c>
       <c r="D58">
-        <v>13.26794242858887</v>
+        <v>13.85337257385254</v>
       </c>
       <c r="E58">
-        <v>13.33589935302734</v>
+        <v>14.03892612457275</v>
       </c>
       <c r="F58">
-        <v>33948320</v>
+        <v>15667904</v>
       </c>
       <c r="G58">
-        <v>14.3561508444611</v>
+        <v>14.46638242359129</v>
       </c>
       <c r="H58">
-        <v>14.33481178283691</v>
+        <v>14.54438352584839</v>
       </c>
       <c r="I58">
-        <v>14.72088584899902</v>
+        <v>14.30214773813884</v>
       </c>
       <c r="L58">
-        <v>25.47534545198927</v>
+        <v>36.21429492318647</v>
       </c>
       <c r="M58">
-        <v>29.00298284106065</v>
-      </c>
-      <c r="N58" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14">
+        <v>43.26686518104806</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B59">
-        <v>13.3376874923706</v>
+        <v>14.03811931610107</v>
       </c>
       <c r="C59">
-        <v>13.59722805023193</v>
+        <v>14.2310152053833</v>
       </c>
       <c r="D59">
-        <v>13.28991603851318</v>
+        <v>14.03555870056152</v>
       </c>
       <c r="E59">
-        <v>13.58284282684326</v>
+        <v>14.18583488464356</v>
       </c>
       <c r="F59">
-        <v>1351296</v>
+        <v>0</v>
       </c>
       <c r="G59">
-        <v>14.28585011558675</v>
+        <v>14.44087810186877</v>
       </c>
       <c r="H59">
-        <v>14.24944596290588</v>
+        <v>14.56839470863342</v>
       </c>
       <c r="I59">
-        <v>14.66357622146606</v>
+        <v>14.32573461532593</v>
       </c>
       <c r="L59">
-        <v>34.27001121311814</v>
+        <v>41.36920991331354</v>
       </c>
       <c r="M59">
-        <v>34.81955455275086</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14">
+        <v>46.20265626806502</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B60">
-        <v>13.58280849456787</v>
+        <v>14.18191528320312</v>
       </c>
       <c r="C60">
-        <v>13.63718414306641</v>
+        <v>14.23575019836426</v>
       </c>
       <c r="D60">
-        <v>13.4500789642334</v>
+        <v>14.0309591293335</v>
       </c>
       <c r="E60">
-        <v>13.63349151611328</v>
+        <v>14.23150062561035</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
       <c r="G60">
-        <v>14.22654478836189</v>
+        <v>14.42184378584528</v>
       </c>
       <c r="H60">
-        <v>14.16424651145935</v>
+        <v>14.59793901443481</v>
       </c>
       <c r="I60">
-        <v>14.60785916646322</v>
+        <v>14.35187543233236</v>
       </c>
       <c r="L60">
-        <v>36.01237383665354</v>
+        <v>42.98065571718666</v>
       </c>
       <c r="M60">
-        <v>35.97809425853166</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14">
+        <v>47.11870369235001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B61">
-        <v>13.63421726226807</v>
+        <v>14.22559547424316</v>
       </c>
       <c r="C61">
-        <v>13.67449760437012</v>
+        <v>14.33765697479248</v>
       </c>
       <c r="D61">
-        <v>13.52192878723144</v>
+        <v>14.15742206573486</v>
       </c>
       <c r="E61">
-        <v>13.53840351104736</v>
+        <v>14.24441719055176</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
       <c r="G61">
-        <v>14.1639864904242</v>
+        <v>14.40571409536405</v>
       </c>
       <c r="H61">
-        <v>14.09298005104065</v>
+        <v>14.62621159553528</v>
       </c>
       <c r="I61">
-        <v>14.54315458933512</v>
+        <v>14.3727398554484</v>
       </c>
       <c r="L61">
-        <v>34.10305556626002</v>
+        <v>43.47501134948181</v>
       </c>
       <c r="M61">
-        <v>34.73001884998185</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14">
+        <v>47.39157234937993</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B62">
-        <v>13.53830814361572</v>
+        <v>14.24496173858643</v>
       </c>
       <c r="C62">
-        <v>13.55661487579346</v>
+        <v>14.30660820007324</v>
       </c>
       <c r="D62">
-        <v>13.33840942382812</v>
+        <v>14.15161418914795</v>
       </c>
       <c r="E62">
-        <v>13.42731189727783</v>
+        <v>14.29819488525391</v>
       </c>
       <c r="F62">
-        <v>947168</v>
+        <v>0</v>
       </c>
       <c r="G62">
-        <v>14.09701607286544</v>
+        <v>14.39593962171767</v>
       </c>
       <c r="H62">
-        <v>14.05870895385742</v>
+        <v>14.6292396068573</v>
       </c>
       <c r="I62">
-        <v>14.47292769749959</v>
+        <v>14.37000331878662</v>
       </c>
       <c r="L62">
-        <v>31.88142249752842</v>
+        <v>45.68087031964216</v>
       </c>
       <c r="M62">
-        <v>33.27759034085315</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14">
+        <v>48.58120610576443</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B63">
-        <v>13.42665767669678</v>
+        <v>14.29715442657471</v>
       </c>
       <c r="C63">
-        <v>13.64288139343262</v>
+        <v>14.42174339294434</v>
       </c>
       <c r="D63">
-        <v>13.42002582550049</v>
+        <v>14.28356552124023</v>
       </c>
       <c r="E63">
-        <v>13.55835437774658</v>
+        <v>14.36415386199951</v>
       </c>
       <c r="F63">
-        <v>7160704</v>
+        <v>0</v>
       </c>
       <c r="G63">
-        <v>14.04804682785463</v>
+        <v>14.39305000719784</v>
       </c>
       <c r="H63">
-        <v>14.0329514503479</v>
+        <v>14.6344687461853</v>
       </c>
       <c r="I63">
-        <v>14.40034319559733</v>
+        <v>14.37689841588338</v>
       </c>
       <c r="L63">
-        <v>37.30166133729024</v>
+        <v>48.45634167270993</v>
       </c>
       <c r="M63">
-        <v>36.64345570452493</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14">
+        <v>50.07246982328468</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B64">
-        <v>13.55844497680664</v>
+        <v>14.363694190979</v>
       </c>
       <c r="C64">
-        <v>13.7148380279541</v>
+        <v>14.57290458679199</v>
       </c>
       <c r="D64">
-        <v>13.55844497680664</v>
+        <v>14.30193614959717</v>
       </c>
       <c r="E64">
-        <v>13.65337562561035</v>
+        <v>14.4550313949585</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>15671776</v>
       </c>
       <c r="G64">
-        <v>14.01216762765061</v>
+        <v>14.39868467881244</v>
       </c>
       <c r="H64">
-        <v>14.00813579559326</v>
+        <v>14.64173083305359</v>
       </c>
       <c r="I64">
-        <v>14.32566442489624</v>
+        <v>14.39211266835531</v>
       </c>
       <c r="L64">
-        <v>41.12336477360026</v>
+        <v>52.23896274752271</v>
       </c>
       <c r="M64">
-        <v>39.04466516958554</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14">
+        <v>52.13235007941574</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B65">
-        <v>13.65393829345703</v>
+        <v>14.45396995544434</v>
       </c>
       <c r="C65">
-        <v>13.6893949508667</v>
+        <v>15.18764019012451</v>
       </c>
       <c r="D65">
-        <v>13.45188999176025</v>
+        <v>14.43996429443359</v>
       </c>
       <c r="E65">
-        <v>13.5379524230957</v>
+        <v>14.8552885055542</v>
       </c>
       <c r="F65">
-        <v>2169408</v>
+        <v>137736896</v>
       </c>
       <c r="G65">
-        <v>13.96905715450925</v>
+        <v>14.44019411760715</v>
       </c>
       <c r="H65">
-        <v>13.9695230960846</v>
+        <v>14.63333697319031</v>
       </c>
       <c r="I65">
-        <v>14.24739796320597</v>
+        <v>14.41893825531006</v>
       </c>
       <c r="L65">
-        <v>37.96132569440372</v>
+        <v>64.97492411183804</v>
       </c>
       <c r="M65">
-        <v>37.20031954513929</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14">
+        <v>59.9665118435038</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B66">
-        <v>13.53361988067627</v>
+        <v>14.85708522796631</v>
       </c>
       <c r="C66">
-        <v>13.65353298187256</v>
+        <v>15.2390775680542</v>
       </c>
       <c r="D66">
-        <v>13.45601654052734</v>
+        <v>14.85677814483643</v>
       </c>
       <c r="E66">
-        <v>13.49378776550293</v>
+        <v>15.08463478088379</v>
       </c>
       <c r="F66">
-        <v>1636704</v>
+        <v>75097888</v>
       </c>
       <c r="G66">
-        <v>13.92585084641777</v>
+        <v>14.49877963245048</v>
       </c>
       <c r="H66">
-        <v>13.92777786254883</v>
+        <v>14.64206280708313</v>
       </c>
       <c r="I66">
-        <v>14.18374239603678</v>
+        <v>14.46134411493937</v>
       </c>
       <c r="L66">
-        <v>36.7451050947755</v>
+        <v>70.11244427831386</v>
       </c>
       <c r="M66">
-        <v>36.49005272242524</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14">
+        <v>63.63871707875976</v>
+      </c>
+      <c r="O66" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
       <c r="A67" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B67">
-        <v>13.4924840927124</v>
+        <v>15.08473491668701</v>
       </c>
       <c r="C67">
-        <v>13.58846759796143</v>
+        <v>15.30747890472412</v>
       </c>
       <c r="D67">
-        <v>13.35256767272949</v>
+        <v>14.98365116119385</v>
       </c>
       <c r="E67">
-        <v>13.57767200469971</v>
+        <v>15.22041034698486</v>
       </c>
       <c r="F67">
-        <v>5102528</v>
+        <v>46503328</v>
       </c>
       <c r="G67">
-        <v>13.8941982244434</v>
+        <v>14.56438242468088</v>
       </c>
       <c r="H67">
-        <v>13.89044160842895</v>
+        <v>14.66104083061218</v>
       </c>
       <c r="I67">
-        <v>14.12888256708781</v>
+        <v>14.51581350962321</v>
       </c>
       <c r="L67">
-        <v>40.7980003966363</v>
+        <v>72.77235459516297</v>
       </c>
       <c r="M67">
-        <v>38.87714218472311</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14">
+        <v>65.64768995892548</v>
+      </c>
+      <c r="O67" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
       <c r="A68" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B68">
-        <v>13.57822513580322</v>
+        <v>15.21982097625732</v>
       </c>
       <c r="C68">
-        <v>13.59455013275146</v>
+        <v>15.35428619384766</v>
       </c>
       <c r="D68">
-        <v>13.05752182006836</v>
+        <v>14.96315860748291</v>
       </c>
       <c r="E68">
-        <v>13.13942718505859</v>
+        <v>14.96315860748291</v>
       </c>
       <c r="F68">
-        <v>21109440</v>
+        <v>42051904</v>
       </c>
       <c r="G68">
-        <v>13.82558267540842</v>
+        <v>14.60063480493561</v>
       </c>
       <c r="H68">
-        <v>13.81383972167969</v>
+        <v>14.64270257949829</v>
       </c>
       <c r="I68">
-        <v>14.0612951596578</v>
+        <v>14.5596765200297</v>
       </c>
       <c r="L68">
-        <v>29.63716229623844</v>
+        <v>61.16869386008551</v>
       </c>
       <c r="M68">
-        <v>32.09089238205287</v>
-      </c>
-      <c r="N68" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14">
+        <v>58.99673185813147</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
       <c r="A69" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B69">
-        <v>13.14121437072754</v>
+        <v>14.96228885650635</v>
       </c>
       <c r="C69">
-        <v>13.34230613708496</v>
+        <v>15.27726459503174</v>
       </c>
       <c r="D69">
-        <v>12.64888763427734</v>
+        <v>14.78528118133545</v>
       </c>
       <c r="E69">
-        <v>12.84166622161865</v>
+        <v>14.79982089996338</v>
       </c>
       <c r="F69">
-        <v>82138912</v>
+        <v>66120832</v>
       </c>
       <c r="G69">
-        <v>13.73613572506389</v>
+        <v>14.61874263175631</v>
       </c>
       <c r="H69">
-        <v>13.72494807243347</v>
+        <v>14.63318090438843</v>
       </c>
       <c r="I69">
-        <v>13.97967872619629</v>
+        <v>14.59615017573039</v>
       </c>
       <c r="L69">
-        <v>24.51168231084113</v>
+        <v>54.91417744763378</v>
       </c>
       <c r="M69">
-        <v>28.45634540869151</v>
-      </c>
-      <c r="N69" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14">
+        <v>55.17450855396496</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
       <c r="A70" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B70">
-        <v>12.84323978424072</v>
+        <v>14.79235172271728</v>
       </c>
       <c r="C70">
-        <v>13.53779792785644</v>
+        <v>15.82065010070801</v>
       </c>
       <c r="D70">
-        <v>12.81392192840576</v>
+        <v>14.77641868591309</v>
       </c>
       <c r="E70">
-        <v>13.47822856903076</v>
+        <v>15.59949207305908</v>
       </c>
       <c r="F70">
-        <v>37161920</v>
+        <v>121108160</v>
       </c>
       <c r="G70">
-        <v>13.71268961996997</v>
+        <v>14.70790167187475</v>
       </c>
       <c r="H70">
-        <v>13.67116899490356</v>
+        <v>14.65718626976013</v>
       </c>
       <c r="I70">
-        <v>13.91770366032918</v>
+        <v>14.66144609451294</v>
       </c>
       <c r="L70">
-        <v>46.68652770468722</v>
+        <v>71.15750166367441</v>
       </c>
       <c r="M70">
-        <v>43.25315490346095</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14">
+        <v>66.58764201229178</v>
+      </c>
+      <c r="O70" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
       <c r="A71" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B71">
-        <v>13.47773742675781</v>
+        <v>15.59846115112305</v>
       </c>
       <c r="C71">
-        <v>13.54892063140869</v>
+        <v>15.66008186340332</v>
       </c>
       <c r="D71">
-        <v>13.2841739654541</v>
+        <v>15.46122932434082</v>
       </c>
       <c r="E71">
-        <v>13.44727611541748</v>
+        <v>15.46563243865967</v>
       </c>
       <c r="F71">
-        <v>15135360</v>
+        <v>6331072</v>
       </c>
       <c r="G71">
-        <v>13.68856111955611</v>
+        <v>14.77678628703701</v>
       </c>
       <c r="H71">
-        <v>13.63541398048401</v>
+        <v>14.67871851921081</v>
       </c>
       <c r="I71">
-        <v>13.86715510686239</v>
+        <v>14.72100165685018</v>
       </c>
       <c r="L71">
-        <v>45.94818854086055</v>
+        <v>66.63646935863437</v>
       </c>
       <c r="M71">
-        <v>42.7897342672977</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14">
+        <v>63.6654643008985</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
       <c r="A72" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B72">
-        <v>13.44900798797607</v>
+        <v>15.46365261077881</v>
       </c>
       <c r="C72">
-        <v>13.81386375427246</v>
+        <v>15.81666660308838</v>
       </c>
       <c r="D72">
-        <v>13.44900798797607</v>
+        <v>15.46203517913818</v>
       </c>
       <c r="E72">
-        <v>13.61848449707031</v>
+        <v>15.65596008300781</v>
       </c>
       <c r="F72">
-        <v>53349728</v>
+        <v>6341056</v>
       </c>
       <c r="G72">
-        <v>13.68219051751195</v>
+        <v>14.85671117757981</v>
       </c>
       <c r="H72">
-        <v>13.59408836364746</v>
+        <v>14.71979112625122</v>
       </c>
       <c r="I72">
-        <v>13.85068012873332</v>
+        <v>14.76827917098999</v>
       </c>
       <c r="L72">
-        <v>50.79093677576937</v>
+        <v>69.71439377240036</v>
       </c>
       <c r="M72">
-        <v>46.22196987540917</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14">
+        <v>65.95330049752279</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
       <c r="A73" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B73">
-        <v>13.61895275115967</v>
+        <v>15.65367698669434</v>
       </c>
       <c r="C73">
-        <v>14.3809757232666</v>
+        <v>15.99544429779053</v>
       </c>
       <c r="D73">
-        <v>13.55726909637451</v>
+        <v>15.24970531463623</v>
       </c>
       <c r="E73">
-        <v>14.38029098510742</v>
+        <v>15.29354381561279</v>
       </c>
       <c r="F73">
-        <v>75694240</v>
+        <v>85707520</v>
       </c>
       <c r="G73">
-        <v>13.74565419638426</v>
+        <v>14.89642323558281</v>
       </c>
       <c r="H73">
-        <v>13.60124168395996</v>
+        <v>14.74683594703674</v>
       </c>
       <c r="I73">
-        <v>13.860906346639</v>
+        <v>14.80274492899577</v>
       </c>
       <c r="L73">
-        <v>66.02736181919643</v>
+        <v>58.21048346481949</v>
       </c>
       <c r="M73">
-        <v>58.2300034892225</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14">
+        <v>58.41120585327563</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
       <c r="A74" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B74">
-        <v>14.38099765777588</v>
+        <v>15.29722881317139</v>
       </c>
       <c r="C74">
-        <v>14.38736248016357</v>
+        <v>15.65276432037354</v>
       </c>
       <c r="D74">
-        <v>14.14009761810303</v>
+        <v>15.28371143341064</v>
       </c>
       <c r="E74">
-        <v>14.15730094909668</v>
+        <v>15.33564949035644</v>
       </c>
       <c r="F74">
-        <v>13492800</v>
+        <v>3279296</v>
       </c>
       <c r="G74">
-        <v>13.78307662844903</v>
+        <v>14.93635289510768</v>
       </c>
       <c r="H74">
-        <v>13.608420753479</v>
+        <v>14.76547875404358</v>
       </c>
       <c r="I74">
-        <v>13.86116008758545</v>
+        <v>14.83694025675456</v>
       </c>
       <c r="L74">
-        <v>59.91809246005648</v>
+        <v>59.0927678595281</v>
       </c>
       <c r="M74">
-        <v>54.40088797974011</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14">
+        <v>58.9978566107834</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
       <c r="A75" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B75">
-        <v>14.15772914886475</v>
+        <v>15.33591747283936</v>
       </c>
       <c r="C75">
-        <v>14.24267196655273</v>
+        <v>15.40386867523193</v>
       </c>
       <c r="D75">
-        <v>13.92824935913086</v>
+        <v>15.03110408782959</v>
       </c>
       <c r="E75">
-        <v>13.99860382080078</v>
+        <v>15.19590854644775</v>
       </c>
       <c r="F75">
         <v>0</v>
       </c>
       <c r="G75">
-        <v>13.80267000957191</v>
+        <v>14.95994886341133</v>
       </c>
       <c r="H75">
-        <v>13.61512322425842</v>
+        <v>14.78679122924805</v>
       </c>
       <c r="I75">
-        <v>13.85077333450317</v>
+        <v>14.84269835154216</v>
       </c>
       <c r="L75">
-        <v>55.78549811720968</v>
+        <v>54.7750008149204</v>
       </c>
       <c r="M75">
-        <v>51.79070033902158</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14">
+        <v>56.16616593559531</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
       <c r="A76" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B76">
-        <v>13.9976863861084</v>
+        <v>15.19363307952881</v>
       </c>
       <c r="C76">
-        <v>14.15718460083008</v>
+        <v>15.32075786590576</v>
       </c>
       <c r="D76">
-        <v>13.95458221435547</v>
+        <v>15.0764331817627</v>
       </c>
       <c r="E76">
-        <v>14.05052089691162</v>
+        <v>15.29298496246338</v>
       </c>
       <c r="F76">
         <v>0</v>
       </c>
       <c r="G76">
-        <v>13.82520190842098</v>
+        <v>14.99022487241606</v>
       </c>
       <c r="H76">
-        <v>13.61445293426514</v>
+        <v>14.83574562072754</v>
       </c>
       <c r="I76">
-        <v>13.84150094985962</v>
+        <v>14.85546058019002</v>
       </c>
       <c r="L76">
-        <v>56.88005092015598</v>
+        <v>57.21802777859678</v>
       </c>
       <c r="M76">
-        <v>52.59208756080037</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14">
+        <v>57.68556842261859</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
       <c r="A77" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B77">
-        <v>14.04991245269775</v>
+        <v>15.29601669311523</v>
       </c>
       <c r="C77">
-        <v>14.13723087310791</v>
+        <v>15.30948734283447</v>
       </c>
       <c r="D77">
-        <v>13.74380493164062</v>
+        <v>15.02463722229004</v>
       </c>
       <c r="E77">
-        <v>13.8124589920044</v>
+        <v>15.08299732208252</v>
       </c>
       <c r="F77">
-        <v>21836832</v>
+        <v>0</v>
       </c>
       <c r="G77">
-        <v>13.82404346147402</v>
+        <v>14.99865873147665</v>
       </c>
       <c r="H77">
-        <v>13.61316747665405</v>
+        <v>14.88317704200745</v>
       </c>
       <c r="I77">
-        <v>13.82443634668986</v>
+        <v>14.86353216171265</v>
       </c>
       <c r="L77">
-        <v>50.43881696507346</v>
+        <v>50.57023888615216</v>
       </c>
       <c r="M77">
-        <v>48.60244430306678</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14">
+        <v>53.37562995277592</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
       <c r="A78" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B78">
-        <v>13.81265544891357</v>
+        <v>15.08347034454346</v>
       </c>
       <c r="C78">
-        <v>13.86919593811035</v>
+        <v>15.22398567199707</v>
       </c>
       <c r="D78">
-        <v>13.44382572174072</v>
+        <v>14.99746131896973</v>
       </c>
       <c r="E78">
-        <v>13.58632850646973</v>
+        <v>15.04398536682129</v>
       </c>
       <c r="F78">
-        <v>27592800</v>
+        <v>0</v>
       </c>
       <c r="G78">
-        <v>13.80243301101908</v>
+        <v>15.00277933468979</v>
       </c>
       <c r="H78">
-        <v>13.62568893432617</v>
+        <v>14.93343000411987</v>
       </c>
       <c r="I78">
-        <v>13.78826513290405</v>
+        <v>14.85400088628133</v>
       </c>
       <c r="L78">
-        <v>44.99397596058828</v>
+        <v>49.37135832735001</v>
       </c>
       <c r="M78">
-        <v>45.10244742151875</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14">
+        <v>52.58950488865055</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
       <c r="A79" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B79">
-        <v>13.58317279815674</v>
+        <v>15.04679584503174</v>
       </c>
       <c r="C79">
-        <v>13.70812606811523</v>
+        <v>15.16345596313477</v>
       </c>
       <c r="D79">
-        <v>13.47390937805176</v>
+        <v>14.789870262146</v>
       </c>
       <c r="E79">
-        <v>13.64726829528809</v>
+        <v>15.07626438140869</v>
       </c>
       <c r="F79">
-        <v>3934784</v>
+        <v>0</v>
       </c>
       <c r="G79">
-        <v>13.78832712777081</v>
+        <v>15.00945979348242</v>
       </c>
       <c r="H79">
-        <v>13.62891020774841</v>
+        <v>14.97795147895813</v>
       </c>
       <c r="I79">
-        <v>13.75585743586222</v>
+        <v>14.8568678855896</v>
       </c>
       <c r="L79">
-        <v>46.73714344858805</v>
+        <v>50.46449036062975</v>
       </c>
       <c r="M79">
-        <v>46.22629146486035</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14">
+        <v>53.2036455959317</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
       <c r="A80" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B80">
-        <v>13.64739418029785</v>
+        <v>15.0757007598877</v>
       </c>
       <c r="C80">
-        <v>13.80154705047607</v>
+        <v>15.1457633972168</v>
       </c>
       <c r="D80">
-        <v>13.3956823348999</v>
+        <v>15.00001239776611</v>
       </c>
       <c r="E80">
-        <v>13.70561122894287</v>
+        <v>15.06369972229004</v>
       </c>
       <c r="F80">
-        <v>116745312</v>
+        <v>2796896</v>
       </c>
       <c r="G80">
-        <v>13.78080750060463</v>
+        <v>15.01439069610129</v>
       </c>
       <c r="H80">
-        <v>13.63251619338989</v>
+        <v>15.01956143379211</v>
       </c>
       <c r="I80">
-        <v>13.72758413950602</v>
+        <v>14.85501171747844</v>
       </c>
       <c r="L80">
-        <v>48.49513567730983</v>
+        <v>49.99182012072085</v>
       </c>
       <c r="M80">
-        <v>47.33782822867869</v>
+        <v>52.91630431378034</v>
       </c>
     </row>
     <row r="81" spans="1:15">
@@ -3530,34 +3533,34 @@
         <v>93</v>
       </c>
       <c r="B81">
-        <v>13.70612144470215</v>
+        <v>15.06604194641113</v>
       </c>
       <c r="C81">
-        <v>13.94661998748779</v>
+        <v>15.34381103515625</v>
       </c>
       <c r="D81">
-        <v>13.59514045715332</v>
+        <v>15.06604194641113</v>
       </c>
       <c r="E81">
-        <v>13.64061450958252</v>
+        <v>15.26390933990478</v>
       </c>
       <c r="F81">
-        <v>3244928</v>
+        <v>6212224</v>
       </c>
       <c r="G81">
-        <v>13.76806268323898</v>
+        <v>15.03707420917434</v>
       </c>
       <c r="H81">
-        <v>13.63762674331665</v>
+        <v>15.07053604125977</v>
       </c>
       <c r="I81">
-        <v>13.71019207636515</v>
+        <v>14.86264244715373</v>
       </c>
       <c r="L81">
-        <v>46.56875199024883</v>
+        <v>57.18123083910602</v>
       </c>
       <c r="M81">
-        <v>46.19228586690144</v>
+        <v>56.90980700659923</v>
       </c>
     </row>
     <row r="82" spans="1:15">
@@ -3565,34 +3568,37 @@
         <v>94</v>
       </c>
       <c r="B82">
-        <v>13.64072036743164</v>
+        <v>15.26165866851807</v>
       </c>
       <c r="C82">
-        <v>13.7839879989624</v>
+        <v>15.85548686981201</v>
       </c>
       <c r="D82">
-        <v>13.62428379058838</v>
+        <v>15.26164531707764</v>
       </c>
       <c r="E82">
-        <v>13.67896556854248</v>
+        <v>15.80655384063721</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>78484864</v>
       </c>
       <c r="G82">
-        <v>13.7599629455393</v>
+        <v>15.10702690294369</v>
       </c>
       <c r="H82">
-        <v>13.65020942687988</v>
+        <v>15.14595398902893</v>
       </c>
       <c r="I82">
-        <v>13.68465770085653</v>
+        <v>14.89504397710164</v>
       </c>
       <c r="L82">
-        <v>47.94145037794284</v>
+        <v>70.23093013808021</v>
       </c>
       <c r="M82">
-        <v>47.00716017440021</v>
+        <v>65.46071027065095</v>
+      </c>
+      <c r="O82" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="83" spans="1:15">
@@ -3600,34 +3606,37 @@
         <v>95</v>
       </c>
       <c r="B83">
-        <v>13.680344581604</v>
+        <v>15.80893802642822</v>
       </c>
       <c r="C83">
-        <v>14.43797969818115</v>
+        <v>15.98116779327393</v>
       </c>
       <c r="D83">
-        <v>13.60991859436035</v>
+        <v>15.75280857086182</v>
       </c>
       <c r="E83">
-        <v>14.23763465881348</v>
+        <v>15.80844593048096</v>
       </c>
       <c r="F83">
-        <v>40205088</v>
+        <v>92251904</v>
       </c>
       <c r="G83">
-        <v>13.80338764674604</v>
+        <v>15.17079226908344</v>
       </c>
       <c r="H83">
-        <v>13.68417344093323</v>
+        <v>15.218168592453</v>
       </c>
       <c r="I83">
-        <v>13.6846713701884</v>
+        <v>14.93023726145426</v>
       </c>
       <c r="L83">
-        <v>63.36553663538514</v>
+        <v>70.26647620692216</v>
       </c>
       <c r="M83">
-        <v>57.18023669644815</v>
+        <v>65.48642811085949</v>
+      </c>
+      <c r="O83" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="84" spans="1:15">
@@ -3635,34 +3644,37 @@
         <v>96</v>
       </c>
       <c r="B84">
-        <v>14.23993015289307</v>
+        <v>15.80411434173584</v>
       </c>
       <c r="C84">
-        <v>14.34388065338135</v>
+        <v>16.09230613708496</v>
       </c>
       <c r="D84">
-        <v>13.71937465667725</v>
+        <v>15.63422298431396</v>
       </c>
       <c r="E84">
-        <v>14.25957107543945</v>
+        <v>15.82054805755615</v>
       </c>
       <c r="F84">
-        <v>13435648</v>
+        <v>84131008</v>
       </c>
       <c r="G84">
-        <v>13.84485886753635</v>
+        <v>15.22986097712641</v>
       </c>
       <c r="H84">
-        <v>13.71448321342468</v>
+        <v>15.28644442558289</v>
       </c>
       <c r="I84">
-        <v>13.69286642074585</v>
+        <v>14.95882908503214</v>
       </c>
       <c r="L84">
-        <v>63.83881171690401</v>
+        <v>70.51977295435019</v>
       </c>
       <c r="M84">
-        <v>57.52503401769173</v>
+        <v>65.66254210582265</v>
+      </c>
+      <c r="O84" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="85" spans="1:15">
@@ -3670,34 +3682,37 @@
         <v>97</v>
       </c>
       <c r="B85">
-        <v>14.26231479644775</v>
+        <v>15.82060146331787</v>
       </c>
       <c r="C85">
-        <v>14.30978965759277</v>
+        <v>16.33771705627441</v>
       </c>
       <c r="D85">
-        <v>14.03209686279297</v>
+        <v>15.7667646408081</v>
       </c>
       <c r="E85">
-        <v>14.30978965759277</v>
+        <v>16.11075401306152</v>
       </c>
       <c r="F85">
-        <v>28237568</v>
+        <v>83672256</v>
       </c>
       <c r="G85">
-        <v>13.88712530299603</v>
+        <v>15.30994216221142</v>
       </c>
       <c r="H85">
-        <v>13.75307507514954</v>
+        <v>15.34921770095825</v>
       </c>
       <c r="I85">
-        <v>13.70770759582519</v>
+        <v>15.00353225072225</v>
       </c>
       <c r="L85">
-        <v>65.00321452369877</v>
+        <v>76.02875086884397</v>
       </c>
       <c r="M85">
-        <v>58.35183117815268</v>
+        <v>69.66052813916015</v>
+      </c>
+      <c r="O85" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="86" spans="1:15">
@@ -3705,37 +3720,34 @@
         <v>98</v>
       </c>
       <c r="B86">
-        <v>14.31180667877197</v>
+        <v>16.10344696044922</v>
       </c>
       <c r="C86">
-        <v>15.31024742126465</v>
+        <v>16.12569046020508</v>
       </c>
       <c r="D86">
-        <v>14.11222648620606</v>
+        <v>15.61963367462158</v>
       </c>
       <c r="E86">
-        <v>15.02316570281982</v>
+        <v>15.8931131362915</v>
       </c>
       <c r="F86">
-        <v>106442176</v>
+        <v>65312576</v>
       </c>
       <c r="G86">
-        <v>13.99040170298001</v>
+        <v>15.36295770530961</v>
       </c>
       <c r="H86">
-        <v>13.82954397201538</v>
+        <v>15.38964161872864</v>
       </c>
       <c r="I86">
-        <v>13.73968222935994</v>
+        <v>15.05617278416952</v>
       </c>
       <c r="L86">
-        <v>76.89366328116198</v>
+        <v>65.67439768827383</v>
       </c>
       <c r="M86">
-        <v>67.9082995165389</v>
-      </c>
-      <c r="O86" t="s">
-        <v>195</v>
+        <v>63.67300368898217</v>
       </c>
     </row>
     <row r="87" spans="1:15">
@@ -3743,37 +3755,34 @@
         <v>99</v>
       </c>
       <c r="B87">
-        <v>15.03515434265137</v>
+        <v>15.8928632736206</v>
       </c>
       <c r="C87">
-        <v>15.07282257080078</v>
+        <v>15.95187950134277</v>
       </c>
       <c r="D87">
-        <v>14.83450794219971</v>
+        <v>15.54432582855225</v>
       </c>
       <c r="E87">
-        <v>14.91011810302734</v>
+        <v>15.72164440155029</v>
       </c>
       <c r="F87">
-        <v>49495168</v>
+        <v>17579008</v>
       </c>
       <c r="G87">
-        <v>14.07401228480249</v>
+        <v>15.39556558678604</v>
       </c>
       <c r="H87">
-        <v>13.89616627693176</v>
+        <v>15.41470332145691</v>
       </c>
       <c r="I87">
-        <v>13.77541389465332</v>
+        <v>15.10908196767171</v>
       </c>
       <c r="L87">
-        <v>72.50212977115839</v>
+        <v>58.60072286624066</v>
       </c>
       <c r="M87">
-        <v>65.34930137462067</v>
-      </c>
-      <c r="O87" t="s">
-        <v>195</v>
+        <v>59.34512809386499</v>
       </c>
     </row>
     <row r="88" spans="1:15">
@@ -3781,34 +3790,34 @@
         <v>100</v>
       </c>
       <c r="B88">
-        <v>14.98251628875732</v>
+        <v>15.73204803466797</v>
       </c>
       <c r="C88">
-        <v>14.98251628875732</v>
+        <v>15.74541854858398</v>
       </c>
       <c r="D88">
-        <v>14.63343143463135</v>
+        <v>15.252366065979</v>
       </c>
       <c r="E88">
-        <v>14.84084987640381</v>
+        <v>15.2796220779419</v>
       </c>
       <c r="F88">
-        <v>39163008</v>
+        <v>0</v>
       </c>
       <c r="G88">
-        <v>14.14372479312988</v>
+        <v>15.38502526780021</v>
       </c>
       <c r="H88">
-        <v>13.98123741149902</v>
+        <v>15.43052649497986</v>
       </c>
       <c r="I88">
-        <v>13.8255789120992</v>
+        <v>15.15043849945068</v>
       </c>
       <c r="L88">
-        <v>69.75593059794221</v>
+        <v>44.65280158406874</v>
       </c>
       <c r="M88">
-        <v>63.76375693380749</v>
+        <v>49.92455038060977</v>
       </c>
     </row>
     <row r="89" spans="1:15">
@@ -3816,37 +3825,34 @@
         <v>101</v>
       </c>
       <c r="B89">
-        <v>14.83956718444824</v>
+        <v>15.27962493896484</v>
       </c>
       <c r="C89">
-        <v>15.32992362976074</v>
+        <v>15.48305034637451</v>
       </c>
       <c r="D89">
-        <v>14.80368995666504</v>
+        <v>15.21802520751953</v>
       </c>
       <c r="E89">
-        <v>15.32992362976074</v>
+        <v>15.46086406707764</v>
       </c>
       <c r="F89">
-        <v>17178816</v>
+        <v>0</v>
       </c>
       <c r="G89">
-        <v>14.25156105100541</v>
+        <v>15.39191970409815</v>
       </c>
       <c r="H89">
-        <v>14.10565028190613</v>
+        <v>15.46357865333557</v>
       </c>
       <c r="I89">
-        <v>13.88381493886312</v>
+        <v>15.19293947219849</v>
       </c>
       <c r="L89">
-        <v>76.75083071496765</v>
+        <v>50.12834735505785</v>
       </c>
       <c r="M89">
-        <v>69.40761163991507</v>
-      </c>
-      <c r="O89" t="s">
-        <v>195</v>
+        <v>53.20470244902536</v>
       </c>
     </row>
     <row r="90" spans="1:15">
@@ -3854,34 +3860,34 @@
         <v>102</v>
       </c>
       <c r="B90">
-        <v>15.3285083770752</v>
+        <v>15.4606819152832</v>
       </c>
       <c r="C90">
-        <v>15.65693378448486</v>
+        <v>15.4606819152832</v>
       </c>
       <c r="D90">
-        <v>14.94981002807617</v>
+        <v>15.18244361877441</v>
       </c>
       <c r="E90">
-        <v>14.99025440216064</v>
+        <v>15.28917980194092</v>
       </c>
       <c r="F90">
-        <v>88384640</v>
+        <v>0</v>
       </c>
       <c r="G90">
-        <v>14.31871499201952</v>
+        <v>15.38257971299295</v>
       </c>
       <c r="H90">
-        <v>14.18125157356262</v>
+        <v>15.44806303977966</v>
       </c>
       <c r="I90">
-        <v>13.92904036839803</v>
+        <v>15.22819544474284</v>
       </c>
       <c r="L90">
-        <v>65.00411379775866</v>
+        <v>45.34745578974634</v>
       </c>
       <c r="M90">
-        <v>62.16574782532616</v>
+        <v>49.87210269980746</v>
       </c>
     </row>
     <row r="91" spans="1:15">
@@ -3889,34 +3895,34 @@
         <v>103</v>
       </c>
       <c r="B91">
-        <v>14.99648189544678</v>
+        <v>15.30832767486572</v>
       </c>
       <c r="C91">
-        <v>15.119384765625</v>
+        <v>15.49026203155518</v>
       </c>
       <c r="D91">
-        <v>14.75813007354736</v>
+        <v>15.08942031860352</v>
       </c>
       <c r="E91">
-        <v>15.119384765625</v>
+        <v>15.19322204589844</v>
       </c>
       <c r="F91">
-        <v>34156224</v>
+        <v>40344896</v>
       </c>
       <c r="G91">
-        <v>14.39150315325638</v>
+        <v>15.36536537962072</v>
       </c>
       <c r="H91">
-        <v>14.264857006073</v>
+        <v>15.4344425201416</v>
       </c>
       <c r="I91">
-        <v>13.98173974355062</v>
+        <v>15.25982227325439</v>
       </c>
       <c r="L91">
-        <v>67.15411674497706</v>
+        <v>42.78186531269848</v>
       </c>
       <c r="M91">
-        <v>63.71570190858627</v>
+        <v>48.06012717463618</v>
       </c>
     </row>
     <row r="92" spans="1:15">
@@ -3924,34 +3930,37 @@
         <v>104</v>
       </c>
       <c r="B92">
-        <v>15.11851787567139</v>
+        <v>15.19201755523682</v>
       </c>
       <c r="C92">
-        <v>15.17152500152588</v>
+        <v>15.19201755523682</v>
       </c>
       <c r="D92">
-        <v>14.86525058746338</v>
+        <v>14.29185104370117</v>
       </c>
       <c r="E92">
-        <v>15.034987449646</v>
+        <v>14.29185104370117</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>25312480</v>
       </c>
       <c r="G92">
-        <v>14.45000172565544</v>
+        <v>15.2677731672644</v>
       </c>
       <c r="H92">
-        <v>14.33568215370178</v>
+        <v>15.36623706817627</v>
       </c>
       <c r="I92">
-        <v>14.03532892862956</v>
+        <v>15.2596108118693</v>
       </c>
       <c r="L92">
-        <v>64.25170194468083</v>
+        <v>26.77422450176106</v>
       </c>
       <c r="M92">
-        <v>61.92995707383505</v>
+        <v>35.14352789503366</v>
+      </c>
+      <c r="N92" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="93" spans="1:15">
@@ -3959,34 +3968,34 @@
         <v>105</v>
       </c>
       <c r="B93">
-        <v>15.03119087219238</v>
+        <v>14.29704189300537</v>
       </c>
       <c r="C93">
-        <v>15.04993629455566</v>
+        <v>14.68309497833252</v>
       </c>
       <c r="D93">
-        <v>14.77085971832275</v>
+        <v>14.24902248382568</v>
       </c>
       <c r="E93">
-        <v>14.83450794219971</v>
+        <v>14.6515474319458</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>49854912</v>
       </c>
       <c r="G93">
-        <v>14.48495683625037</v>
+        <v>15.2117526458718</v>
       </c>
       <c r="H93">
-        <v>14.3583930015564</v>
+        <v>15.33413724899292</v>
       </c>
       <c r="I93">
-        <v>14.077867380778</v>
+        <v>15.26919059753418</v>
       </c>
       <c r="L93">
-        <v>57.59903310349905</v>
+        <v>37.30552285560672</v>
       </c>
       <c r="M93">
-        <v>57.78683371288147</v>
+        <v>41.85881143197292</v>
       </c>
     </row>
     <row r="94" spans="1:15">
@@ -3994,34 +4003,34 @@
         <v>106</v>
       </c>
       <c r="B94">
-        <v>14.83365821838379</v>
+        <v>14.64986896514893</v>
       </c>
       <c r="C94">
-        <v>14.97818756103516</v>
+        <v>14.78550243377686</v>
       </c>
       <c r="D94">
-        <v>14.73576164245606</v>
+        <v>14.48666763305664</v>
       </c>
       <c r="E94">
-        <v>14.75264739990234</v>
+        <v>14.78550243377686</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>14122112</v>
       </c>
       <c r="G94">
-        <v>14.50929234203691</v>
+        <v>15.17300262659044</v>
       </c>
       <c r="H94">
-        <v>14.38816032409668</v>
+        <v>15.30662989616394</v>
       </c>
       <c r="I94">
-        <v>14.11450977325439</v>
+        <v>15.28020629882812</v>
       </c>
       <c r="L94">
-        <v>54.98384156658069</v>
+        <v>40.86849362692596</v>
       </c>
       <c r="M94">
-        <v>56.13542927348794</v>
+        <v>44.17691280790596</v>
       </c>
     </row>
     <row r="95" spans="1:15">
@@ -4029,34 +4038,34 @@
         <v>107</v>
       </c>
       <c r="B95">
-        <v>14.75488567352295</v>
+        <v>14.78441524505615</v>
       </c>
       <c r="C95">
-        <v>14.9908275604248</v>
+        <v>15.0015697479248</v>
       </c>
       <c r="D95">
-        <v>14.67370510101318</v>
+        <v>14.72720623016357</v>
       </c>
       <c r="E95">
-        <v>14.96279335021973</v>
+        <v>14.99967288970947</v>
       </c>
       <c r="F95">
-        <v>142976</v>
+        <v>29714368</v>
       </c>
       <c r="G95">
-        <v>14.55051970641717</v>
+        <v>15.15724537778308</v>
       </c>
       <c r="H95">
-        <v>14.43636980056763</v>
+        <v>15.29681811332703</v>
       </c>
       <c r="I95">
-        <v>14.1620044708252</v>
+        <v>15.2850191116333</v>
       </c>
       <c r="L95">
-        <v>60.20233170672954</v>
+        <v>46.35235864765852</v>
       </c>
       <c r="M95">
-        <v>59.34721074636411</v>
+        <v>47.76293209262451</v>
       </c>
     </row>
     <row r="96" spans="1:15">
@@ -4064,1175 +4073,1172 @@
         <v>108</v>
       </c>
       <c r="B96">
-        <v>14.96354389190674</v>
+        <v>15.00528430938721</v>
       </c>
       <c r="C96">
-        <v>15.28156089782715</v>
+        <v>15.61361122131348</v>
       </c>
       <c r="D96">
-        <v>14.7696590423584</v>
+        <v>14.90183925628662</v>
       </c>
       <c r="E96">
-        <v>14.7696590423584</v>
+        <v>15.49937915802002</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>96567808</v>
       </c>
       <c r="G96">
-        <v>14.57044146423001</v>
+        <v>15.18834844871371</v>
       </c>
       <c r="H96">
-        <v>14.47232670783997</v>
+        <v>15.30713782310486</v>
       </c>
       <c r="I96">
-        <v>14.20453351338704</v>
+        <v>15.29884392420451</v>
       </c>
       <c r="L96">
-        <v>53.75889330595726</v>
+        <v>56.85514606758736</v>
       </c>
       <c r="M96">
-        <v>55.33696895992548</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15">
+        <v>55.02283434460083</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B97">
-        <v>14.77275657653809</v>
+        <v>15.49981594085693</v>
       </c>
       <c r="C97">
-        <v>14.90487670898438</v>
+        <v>15.57958984375</v>
       </c>
       <c r="D97">
-        <v>14.12762832641602</v>
+        <v>15.07675170898438</v>
       </c>
       <c r="E97">
-        <v>14.31389713287354</v>
+        <v>15.1619873046875</v>
       </c>
       <c r="F97">
-        <v>30520672</v>
+        <v>42571392</v>
       </c>
       <c r="G97">
-        <v>14.54711925228851</v>
+        <v>15.18595198107496</v>
       </c>
       <c r="H97">
-        <v>14.49739861488342</v>
+        <v>15.31108732223511</v>
       </c>
       <c r="I97">
-        <v>14.22907435099284</v>
+        <v>15.29689648946126</v>
       </c>
       <c r="L97">
-        <v>41.86366597776924</v>
+        <v>49.49498296084101</v>
       </c>
       <c r="M97">
-        <v>47.22692518787316</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15">
+        <v>49.97284423174699</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B98">
-        <v>14.31467533111572</v>
+        <v>15.16012954711914</v>
       </c>
       <c r="C98">
-        <v>14.43203830718994</v>
+        <v>15.50281238555908</v>
       </c>
       <c r="D98">
-        <v>13.7658166885376</v>
+        <v>14.69491386413574</v>
       </c>
       <c r="E98">
-        <v>14.13436889648438</v>
+        <v>15.50281238555908</v>
       </c>
       <c r="F98">
-        <v>56091936</v>
+        <v>20852288</v>
       </c>
       <c r="G98">
-        <v>14.50959649266995</v>
+        <v>15.2147574723917</v>
       </c>
       <c r="H98">
-        <v>14.52480063438415</v>
+        <v>15.334028673172</v>
       </c>
       <c r="I98">
-        <v>14.26223907470703</v>
+        <v>15.31488494873047</v>
       </c>
       <c r="L98">
-        <v>38.12529104968757</v>
+        <v>55.97227373767573</v>
       </c>
       <c r="M98">
-        <v>44.46264208602292</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15">
+        <v>54.5143855861612</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B99">
-        <v>14.1313886642456</v>
+        <v>15.50299167633057</v>
       </c>
       <c r="C99">
-        <v>14.1882381439209</v>
+        <v>16.32089233398438</v>
       </c>
       <c r="D99">
-        <v>13.85337257385254</v>
+        <v>15.39886951446533</v>
       </c>
       <c r="E99">
-        <v>14.03892612457275</v>
+        <v>16.03485298156738</v>
       </c>
       <c r="F99">
-        <v>15667904</v>
+        <v>96699968</v>
       </c>
       <c r="G99">
-        <v>14.46680827738839</v>
+        <v>15.28931160958949</v>
       </c>
       <c r="H99">
-        <v>14.54438352584839</v>
+        <v>15.38195810317993</v>
       </c>
       <c r="I99">
-        <v>14.30214773813884</v>
+        <v>15.35605268478394</v>
       </c>
       <c r="L99">
-        <v>36.19232222201298</v>
+        <v>64.06572120282591</v>
       </c>
       <c r="M99">
-        <v>43.02096511966892</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15">
+        <v>60.53700490106791</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B100">
-        <v>14.03811931610107</v>
+        <v>16.04394149780273</v>
       </c>
       <c r="C100">
-        <v>14.2310152053833</v>
+        <v>16.31330871582031</v>
       </c>
       <c r="D100">
-        <v>14.03555870056152</v>
+        <v>15.78488254547119</v>
       </c>
       <c r="E100">
-        <v>14.18583488464356</v>
+        <v>16.03103256225586</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>101869184</v>
       </c>
       <c r="G100">
-        <v>14.44126524168431</v>
+        <v>15.35674078710461</v>
       </c>
       <c r="H100">
-        <v>14.56839470863342</v>
+        <v>15.43032474517822</v>
       </c>
       <c r="I100">
-        <v>14.32573461532593</v>
+        <v>15.37043736775716</v>
       </c>
       <c r="L100">
-        <v>41.34217495787728</v>
+        <v>63.97072475889557</v>
       </c>
       <c r="M100">
-        <v>45.92726461389913</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15">
+        <v>60.47508378583516</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B101">
-        <v>14.18191528320312</v>
+        <v>16.02853775024414</v>
       </c>
       <c r="C101">
-        <v>14.23575019836426</v>
+        <v>16.47677230834961</v>
       </c>
       <c r="D101">
-        <v>14.0309591293335</v>
+        <v>16.02853775024414</v>
       </c>
       <c r="E101">
-        <v>14.23150062561035</v>
+        <v>16.46968078613281</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>97184768</v>
       </c>
       <c r="G101">
-        <v>14.42219573113213</v>
+        <v>15.45791715065263</v>
       </c>
       <c r="H101">
-        <v>14.59793901443481</v>
+        <v>15.49061331748962</v>
       </c>
       <c r="I101">
-        <v>14.35187543233236</v>
+        <v>15.40390564600627</v>
       </c>
       <c r="L101">
-        <v>42.9522846546694</v>
+        <v>69.76220538301708</v>
       </c>
       <c r="M101">
-        <v>46.83503972267984</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15">
+        <v>64.91277326291623</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B102">
-        <v>14.22559547424316</v>
+        <v>16.4581184387207</v>
       </c>
       <c r="C102">
-        <v>14.33765697479248</v>
+        <v>16.52505874633789</v>
       </c>
       <c r="D102">
-        <v>14.15742206573486</v>
+        <v>15.8698205947876</v>
       </c>
       <c r="E102">
-        <v>14.24441719055176</v>
+        <v>16.00972557067871</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>29881664</v>
       </c>
       <c r="G102">
-        <v>14.40603404562482</v>
+        <v>15.50808155247318</v>
       </c>
       <c r="H102">
-        <v>14.62621159553528</v>
+        <v>15.5007719039917</v>
       </c>
       <c r="I102">
-        <v>14.3727398554484</v>
+        <v>15.41569782892863</v>
       </c>
       <c r="L102">
-        <v>43.4462539252054</v>
+        <v>58.64239297855458</v>
       </c>
       <c r="M102">
-        <v>47.10552984348141</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15">
+        <v>57.60880803461232</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B103">
-        <v>14.24496173858643</v>
+        <v>16.00856018066406</v>
       </c>
       <c r="C103">
-        <v>14.30660820007324</v>
+        <v>16.0439510345459</v>
       </c>
       <c r="D103">
-        <v>14.15161418914795</v>
+        <v>15.76625061035156</v>
       </c>
       <c r="E103">
-        <v>14.29819488525391</v>
+        <v>15.77045154571533</v>
       </c>
       <c r="F103">
         <v>0</v>
       </c>
       <c r="G103">
-        <v>14.3962304855911</v>
+        <v>15.53193337004065</v>
       </c>
       <c r="H103">
-        <v>14.6292396068573</v>
+        <v>15.49887218475342</v>
       </c>
       <c r="I103">
-        <v>14.37000331878662</v>
+        <v>15.43159475326538</v>
       </c>
       <c r="L103">
-        <v>45.65052353523054</v>
+        <v>53.63872762380098</v>
       </c>
       <c r="M103">
-        <v>48.28525312529862</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15">
+        <v>54.19268212129234</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B104">
-        <v>14.29715442657471</v>
+        <v>15.76338768005371</v>
       </c>
       <c r="C104">
-        <v>14.42174339294434</v>
+        <v>15.877760887146</v>
       </c>
       <c r="D104">
-        <v>14.28356552124023</v>
+        <v>15.68657684326172</v>
       </c>
       <c r="E104">
-        <v>14.36415386199951</v>
+        <v>15.7869987487793</v>
       </c>
       <c r="F104">
         <v>0</v>
       </c>
       <c r="G104">
-        <v>14.39331442890096</v>
+        <v>15.55512113174416</v>
       </c>
       <c r="H104">
-        <v>14.6344687461853</v>
+        <v>15.49719471931457</v>
       </c>
       <c r="I104">
-        <v>14.37689841588338</v>
+        <v>15.44663972854614</v>
       </c>
       <c r="L104">
-        <v>48.42430762764246</v>
+        <v>53.94445900922459</v>
       </c>
       <c r="M104">
-        <v>49.76514982645964</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15">
+        <v>54.39409155854862</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13">
       <c r="A105" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B105">
-        <v>14.363694190979</v>
+        <v>15.7871904373169</v>
       </c>
       <c r="C105">
-        <v>14.57290458679199</v>
+        <v>15.8734016418457</v>
       </c>
       <c r="D105">
-        <v>14.30193614959717</v>
+        <v>15.72306728363037</v>
       </c>
       <c r="E105">
-        <v>14.4550313949585</v>
+        <v>15.73922348022461</v>
       </c>
       <c r="F105">
-        <v>15671776</v>
+        <v>3296512</v>
       </c>
       <c r="G105">
-        <v>14.39892506217892</v>
+        <v>15.57185770887875</v>
       </c>
       <c r="H105">
-        <v>14.64173083305359</v>
+        <v>15.47861819267273</v>
       </c>
       <c r="I105">
-        <v>14.39211266835531</v>
+        <v>15.4647502263387</v>
       </c>
       <c r="L105">
-        <v>52.20519002521017</v>
+        <v>52.81320976120186</v>
       </c>
       <c r="M105">
-        <v>51.81126387530241</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15">
+        <v>53.66048572557192</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13">
       <c r="A106" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B106">
-        <v>14.45396995544434</v>
+        <v>15.74295139312744</v>
       </c>
       <c r="C106">
-        <v>15.18764019012451</v>
+        <v>15.75471591949463</v>
       </c>
       <c r="D106">
-        <v>14.43996429443359</v>
+        <v>15.54078102111816</v>
       </c>
       <c r="E106">
-        <v>14.8552885055542</v>
+        <v>15.66731452941894</v>
       </c>
       <c r="F106">
-        <v>137736896</v>
+        <v>0</v>
       </c>
       <c r="G106">
-        <v>14.4404126479403</v>
+        <v>15.58053560165513</v>
       </c>
       <c r="H106">
-        <v>14.63333697319031</v>
+        <v>15.4673282623291</v>
       </c>
       <c r="I106">
-        <v>14.41893825531006</v>
+        <v>15.47722787857056</v>
       </c>
       <c r="L106">
-        <v>64.94005581101771</v>
+        <v>51.0021520057403</v>
       </c>
       <c r="M106">
-        <v>59.61363648353483</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15">
+        <v>52.51249546531911</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13">
       <c r="A107" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B107">
-        <v>14.85708522796631</v>
+        <v>15.66750144958496</v>
       </c>
       <c r="C107">
-        <v>15.2390775680542</v>
+        <v>15.66750144958496</v>
       </c>
       <c r="D107">
-        <v>14.85677814483643</v>
+        <v>15.49729251861572</v>
       </c>
       <c r="E107">
-        <v>15.08463478088379</v>
+        <v>15.62185859680176</v>
       </c>
       <c r="F107">
-        <v>75097888</v>
+        <v>0</v>
       </c>
       <c r="G107">
-        <v>14.49897829638971</v>
+        <v>15.58429223757755</v>
       </c>
       <c r="H107">
-        <v>14.64206280708313</v>
+        <v>15.46233897209168</v>
       </c>
       <c r="I107">
-        <v>14.46134411493937</v>
+        <v>15.4951899210612</v>
       </c>
       <c r="L107">
-        <v>70.07921201003174</v>
+        <v>49.78799590730566</v>
       </c>
       <c r="M107">
-        <v>63.28219292414411</v>
-      </c>
-      <c r="O107" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15">
+        <v>51.75869016811643</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13">
       <c r="A108" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B108">
-        <v>15.08473491668701</v>
+        <v>15.62170791625977</v>
       </c>
       <c r="C108">
-        <v>15.30747890472412</v>
+        <v>15.87867736816406</v>
       </c>
       <c r="D108">
-        <v>14.98365116119385</v>
+        <v>15.58392143249512</v>
       </c>
       <c r="E108">
-        <v>15.22041034698486</v>
+        <v>15.7316370010376</v>
       </c>
       <c r="F108">
-        <v>46503328</v>
+        <v>0</v>
       </c>
       <c r="G108">
-        <v>14.564563028262</v>
+        <v>15.59768721607392</v>
       </c>
       <c r="H108">
-        <v>14.66104083061218</v>
+        <v>15.48493971824646</v>
       </c>
       <c r="I108">
-        <v>14.51581350962321</v>
+        <v>15.51811164220174</v>
       </c>
       <c r="L108">
-        <v>72.74043893702564</v>
+        <v>52.83837389646318</v>
       </c>
       <c r="M108">
-        <v>65.29221998940176</v>
-      </c>
-      <c r="O108" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15">
+        <v>53.49492282905526</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13">
       <c r="A109" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B109">
-        <v>15.21982097625732</v>
+        <v>15.73282146453857</v>
       </c>
       <c r="C109">
-        <v>15.35428619384766</v>
+        <v>15.79005241394043</v>
       </c>
       <c r="D109">
-        <v>14.96315860748291</v>
+        <v>15.48156070709228</v>
       </c>
       <c r="E109">
-        <v>14.96315860748291</v>
+        <v>15.5016040802002</v>
       </c>
       <c r="F109">
-        <v>42051904</v>
+        <v>0</v>
       </c>
       <c r="G109">
-        <v>14.60079899000935</v>
+        <v>15.58895238553994</v>
       </c>
       <c r="H109">
-        <v>14.64270257949829</v>
+        <v>15.48697671890259</v>
       </c>
       <c r="I109">
-        <v>14.5596765200297</v>
+        <v>15.53228963216146</v>
       </c>
       <c r="L109">
-        <v>61.14787563256709</v>
+        <v>46.21932879794781</v>
       </c>
       <c r="M109">
-        <v>58.7319600811477</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15">
+        <v>49.47658616108177</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13">
       <c r="A110" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B110">
-        <v>14.96228885650635</v>
+        <v>15.50177383422852</v>
       </c>
       <c r="C110">
-        <v>15.27726459503174</v>
+        <v>15.57986259460449</v>
       </c>
       <c r="D110">
-        <v>14.78528118133545</v>
+        <v>15.41338920593262</v>
       </c>
       <c r="E110">
-        <v>14.79982089996338</v>
+        <v>15.49404335021973</v>
       </c>
       <c r="F110">
-        <v>66120832</v>
+        <v>0</v>
       </c>
       <c r="G110">
-        <v>14.61889189091426</v>
+        <v>15.58032429141992</v>
       </c>
       <c r="H110">
-        <v>14.63318090438843</v>
+        <v>15.49721989631653</v>
       </c>
       <c r="I110">
-        <v>14.59615017573039</v>
+        <v>15.54663441975911</v>
       </c>
       <c r="L110">
-        <v>54.89839579850594</v>
+        <v>46.00622619056857</v>
       </c>
       <c r="M110">
-        <v>54.95632418394081</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15">
+        <v>49.34538468783488</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13">
       <c r="A111" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B111">
-        <v>14.79235172271728</v>
+        <v>15.4959077835083</v>
       </c>
       <c r="C111">
-        <v>15.82065010070801</v>
+        <v>15.55900478363037</v>
       </c>
       <c r="D111">
-        <v>14.77641868591309</v>
+        <v>15.39412689208984</v>
       </c>
       <c r="E111">
-        <v>15.59949207305908</v>
+        <v>15.39412689208984</v>
       </c>
       <c r="F111">
-        <v>121108160</v>
+        <v>0</v>
       </c>
       <c r="G111">
-        <v>14.70803736201834</v>
+        <v>15.56339725511719</v>
       </c>
       <c r="H111">
-        <v>14.65718626976013</v>
+        <v>15.5072651386261</v>
       </c>
       <c r="I111">
-        <v>14.66144609451294</v>
+        <v>15.55097500483195</v>
       </c>
       <c r="L111">
-        <v>71.14257041401146</v>
+        <v>43.05492335881775</v>
       </c>
       <c r="M111">
-        <v>66.35875291656953</v>
-      </c>
-      <c r="O111" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15">
+        <v>47.5508364677024</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13">
       <c r="A112" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B112">
-        <v>15.59846115112305</v>
+        <v>15.39161109924316</v>
       </c>
       <c r="C112">
-        <v>15.66008186340332</v>
+        <v>15.66324043273926</v>
       </c>
       <c r="D112">
-        <v>15.46122932434082</v>
+        <v>15.24632930755615</v>
       </c>
       <c r="E112">
-        <v>15.46563243865967</v>
+        <v>15.59455585479736</v>
       </c>
       <c r="F112">
-        <v>6331072</v>
+        <v>61144224</v>
       </c>
       <c r="G112">
-        <v>14.776909641713</v>
+        <v>15.56622985508811</v>
       </c>
       <c r="H112">
-        <v>14.67871851921081</v>
+        <v>15.57240037918091</v>
       </c>
       <c r="I112">
-        <v>14.72100165685018</v>
+        <v>15.54390840530396</v>
       </c>
       <c r="L112">
-        <v>66.62374641452648</v>
+        <v>50.25623763907321</v>
       </c>
       <c r="M112">
-        <v>63.46270974691837</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15">
+        <v>51.37124556743626</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
       <c r="A113" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B113">
-        <v>15.46365261077881</v>
+        <v>15.58992958068848</v>
       </c>
       <c r="C113">
-        <v>15.81666660308838</v>
+        <v>15.89023876190186</v>
       </c>
       <c r="D113">
-        <v>15.46203517913818</v>
+        <v>15.50377750396728</v>
       </c>
       <c r="E113">
-        <v>15.65596008300781</v>
+        <v>15.63705158233643</v>
       </c>
       <c r="F113">
-        <v>6341056</v>
+        <v>75540416</v>
       </c>
       <c r="G113">
-        <v>14.85682331819435</v>
+        <v>15.57266819392887</v>
       </c>
       <c r="H113">
-        <v>14.71979112625122</v>
+        <v>15.62167558670044</v>
       </c>
       <c r="I113">
-        <v>14.76827917098999</v>
+        <v>15.5381952603658</v>
       </c>
       <c r="L113">
-        <v>69.70206564179396</v>
+        <v>51.7127864414151</v>
       </c>
       <c r="M113">
-        <v>65.75139772845587</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15">
+        <v>52.16680056542105</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14">
       <c r="A114" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B114">
-        <v>15.65367698669434</v>
+        <v>15.63797950744629</v>
       </c>
       <c r="C114">
-        <v>15.99544429779053</v>
+        <v>15.69222068786621</v>
       </c>
       <c r="D114">
-        <v>15.24970531463623</v>
+        <v>15.0024824142456</v>
       </c>
       <c r="E114">
-        <v>15.29354381561279</v>
+        <v>15.16529273986816</v>
       </c>
       <c r="F114">
-        <v>85707520</v>
+        <v>63785696</v>
       </c>
       <c r="G114">
-        <v>14.89652518159603</v>
+        <v>15.53563406174153</v>
       </c>
       <c r="H114">
-        <v>14.74683594703674</v>
+        <v>15.64066510200501</v>
       </c>
       <c r="I114">
-        <v>14.80274492899577</v>
+        <v>15.51635341644287</v>
       </c>
       <c r="L114">
-        <v>58.20261929370798</v>
+        <v>37.8656696576742</v>
       </c>
       <c r="M114">
-        <v>58.26690000470953</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15">
+        <v>43.63285025271755</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14">
       <c r="A115" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B115">
-        <v>15.29722881317139</v>
+        <v>15.16312599182129</v>
       </c>
       <c r="C115">
-        <v>15.65276432037354</v>
+        <v>15.37148284912109</v>
       </c>
       <c r="D115">
-        <v>15.28371143341064</v>
+        <v>14.81637668609619</v>
       </c>
       <c r="E115">
-        <v>15.33564949035644</v>
+        <v>15.06906890869141</v>
       </c>
       <c r="F115">
-        <v>3279296</v>
+        <v>73304672</v>
       </c>
       <c r="G115">
-        <v>14.93644557330152</v>
+        <v>15.49321904782788</v>
       </c>
       <c r="H115">
-        <v>14.76547875404358</v>
+        <v>15.6441349029541</v>
       </c>
       <c r="I115">
-        <v>14.83694025675456</v>
+        <v>15.48163057963053</v>
       </c>
       <c r="L115">
-        <v>59.0848872488741</v>
+        <v>35.67374683250847</v>
       </c>
       <c r="M115">
-        <v>58.85292251332172</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15">
+        <v>42.11934209678015</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14">
       <c r="A116" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B116">
-        <v>15.33591747283936</v>
+        <v>15.07131481170654</v>
       </c>
       <c r="C116">
-        <v>15.40386867523193</v>
+        <v>15.11561107635498</v>
       </c>
       <c r="D116">
-        <v>15.03110408782959</v>
+        <v>14.62159729003906</v>
       </c>
       <c r="E116">
-        <v>15.19590854644775</v>
+        <v>14.69435787200928</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>65475328</v>
       </c>
       <c r="G116">
-        <v>14.96003311631481</v>
+        <v>15.42059530457164</v>
       </c>
       <c r="H116">
-        <v>14.78679122924805</v>
+        <v>15.60388383865356</v>
       </c>
       <c r="I116">
-        <v>14.84269835154216</v>
+        <v>15.44167207082113</v>
       </c>
       <c r="L116">
-        <v>54.76852351193691</v>
+        <v>28.45708451864736</v>
       </c>
       <c r="M116">
-        <v>56.04035933254836</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15">
+        <v>36.77039824139743</v>
+      </c>
+      <c r="N116" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14">
       <c r="A117" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B117">
-        <v>15.19363307952881</v>
+        <v>14.69743728637695</v>
       </c>
       <c r="C117">
-        <v>15.32075786590576</v>
+        <v>14.91668128967285</v>
       </c>
       <c r="D117">
-        <v>15.0764331817627</v>
+        <v>14.52067279815674</v>
       </c>
       <c r="E117">
-        <v>15.29298496246338</v>
+        <v>14.54096031188965</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>45777216</v>
       </c>
       <c r="G117">
-        <v>14.99030146596468</v>
+        <v>15.3406284870551</v>
       </c>
       <c r="H117">
-        <v>14.83574562072754</v>
+        <v>15.57283248901367</v>
       </c>
       <c r="I117">
-        <v>14.85546058019002</v>
+        <v>15.40231593449911</v>
       </c>
       <c r="L117">
-        <v>57.21145733977983</v>
+        <v>26.0317813437292</v>
       </c>
       <c r="M117">
-        <v>57.55778369589541</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15">
+        <v>34.82085640629558</v>
+      </c>
+      <c r="N117" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14">
       <c r="A118" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B118">
-        <v>15.29601669311523</v>
+        <v>14.54454135894775</v>
       </c>
       <c r="C118">
-        <v>15.30948734283447</v>
+        <v>14.85884380340576</v>
       </c>
       <c r="D118">
-        <v>15.02463722229004</v>
+        <v>14.54454135894775</v>
       </c>
       <c r="E118">
-        <v>15.08299732208252</v>
+        <v>14.71926116943359</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>9292160</v>
       </c>
       <c r="G118">
-        <v>14.99872836197539</v>
+        <v>15.28414054908951</v>
       </c>
       <c r="H118">
-        <v>14.88317704200745</v>
+        <v>15.5336549282074</v>
       </c>
       <c r="I118">
-        <v>14.86353216171265</v>
+        <v>15.38363723754883</v>
       </c>
       <c r="L118">
-        <v>50.56549706251819</v>
+        <v>33.44864101614353</v>
       </c>
       <c r="M118">
-        <v>53.27395093355496</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15">
+        <v>38.87739615656979</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14">
       <c r="A119" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B119">
-        <v>15.08347034454346</v>
+        <v>14.71570014953613</v>
       </c>
       <c r="C119">
-        <v>15.22398567199707</v>
+        <v>14.84451103210449</v>
       </c>
       <c r="D119">
-        <v>14.99746131896973</v>
+        <v>14.51686668395996</v>
       </c>
       <c r="E119">
-        <v>15.04398536682129</v>
+        <v>14.52995586395264</v>
       </c>
       <c r="F119">
         <v>0</v>
       </c>
       <c r="G119">
-        <v>15.0028426351432</v>
+        <v>15.21557830498615</v>
       </c>
       <c r="H119">
-        <v>14.93343000411987</v>
+        <v>15.45841007232666</v>
       </c>
       <c r="I119">
-        <v>14.85400088628133</v>
+        <v>15.35260696411133</v>
       </c>
       <c r="L119">
-        <v>49.36691647765905</v>
+        <v>29.87107518893815</v>
       </c>
       <c r="M119">
-        <v>52.49230024133085</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15">
+        <v>36.29463882905748</v>
+      </c>
+      <c r="N119" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14">
       <c r="A120" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B120">
-        <v>15.04679584503174</v>
+        <v>14.53238582611084</v>
       </c>
       <c r="C120">
-        <v>15.16345596313477</v>
+        <v>14.58058547973633</v>
       </c>
       <c r="D120">
-        <v>14.789870262146</v>
+        <v>13.88342094421387</v>
       </c>
       <c r="E120">
-        <v>15.07626438140869</v>
+        <v>13.94034099578857</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>36697024</v>
       </c>
       <c r="G120">
-        <v>15.00951733934916</v>
+        <v>15.09964764051365</v>
       </c>
       <c r="H120">
-        <v>14.97795147895813</v>
+        <v>15.3538754940033</v>
       </c>
       <c r="I120">
-        <v>14.8568678855896</v>
+        <v>15.30764567057292</v>
       </c>
       <c r="L120">
-        <v>50.45997706255187</v>
+        <v>21.72801872634973</v>
       </c>
       <c r="M120">
-        <v>53.10539545033069</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15">
+        <v>29.68081554871991</v>
+      </c>
+      <c r="N120" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14">
       <c r="A121" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B121">
-        <v>15.0757007598877</v>
+        <v>13.94470882415772</v>
       </c>
       <c r="C121">
-        <v>15.1457633972168</v>
+        <v>14.13947486877441</v>
       </c>
       <c r="D121">
-        <v>15.00001239776611</v>
+        <v>13.59490299224854</v>
       </c>
       <c r="E121">
-        <v>15.06369972229004</v>
+        <v>14.08453273773193</v>
       </c>
       <c r="F121">
-        <v>2796896</v>
+        <v>25329216</v>
       </c>
       <c r="G121">
-        <v>15.0144430105256</v>
+        <v>15.00736446753349</v>
       </c>
       <c r="H121">
-        <v>15.01956143379211</v>
+        <v>15.23461809158325</v>
       </c>
       <c r="I121">
-        <v>14.85501171747844</v>
+        <v>15.2706893603007</v>
       </c>
       <c r="L121">
-        <v>49.98742076908089</v>
+        <v>27.18885243189423</v>
       </c>
       <c r="M121">
-        <v>52.81965311502097</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15">
+        <v>32.90101451752762</v>
+      </c>
+      <c r="N121" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14">
       <c r="A122" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B122">
-        <v>15.06604194641113</v>
+        <v>14.09875106811523</v>
       </c>
       <c r="C122">
-        <v>15.34381103515625</v>
+        <v>14.1878080368042</v>
       </c>
       <c r="D122">
-        <v>15.06604194641113</v>
+        <v>13.86169338226318</v>
       </c>
       <c r="E122">
-        <v>15.26390933990478</v>
+        <v>13.8858118057251</v>
       </c>
       <c r="F122">
-        <v>6212224</v>
+        <v>5696</v>
       </c>
       <c r="G122">
-        <v>15.03712176774189</v>
+        <v>14.90540513464182</v>
       </c>
       <c r="H122">
-        <v>15.07053604125977</v>
+        <v>15.12842240333557</v>
       </c>
       <c r="I122">
-        <v>14.86264244715373</v>
+        <v>15.25715471903483</v>
       </c>
       <c r="L122">
-        <v>57.17653033715568</v>
+        <v>24.53490258394393</v>
       </c>
       <c r="M122">
-        <v>56.8077077938632</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15">
+        <v>30.80715118570415</v>
+      </c>
+      <c r="N122" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14">
       <c r="A123" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B123">
-        <v>15.26165866851807</v>
+        <v>13.88231945037842</v>
       </c>
       <c r="C123">
-        <v>15.85548686981201</v>
+        <v>14.30352401733398</v>
       </c>
       <c r="D123">
-        <v>15.26164531707764</v>
+        <v>13.81754112243652</v>
       </c>
       <c r="E123">
-        <v>15.80655384063721</v>
+        <v>14.27609729766846</v>
       </c>
       <c r="F123">
-        <v>78484864</v>
+        <v>16626880</v>
       </c>
       <c r="G123">
-        <v>15.1070701380051</v>
+        <v>14.8481953312806</v>
       </c>
       <c r="H123">
-        <v>15.14595398902893</v>
+        <v>15.05370469093323</v>
       </c>
       <c r="I123">
-        <v>14.89504397710164</v>
+        <v>15.24463971455892</v>
       </c>
       <c r="L123">
-        <v>70.22648394284235</v>
+        <v>37.92312693354492</v>
       </c>
       <c r="M123">
-        <v>65.35542847959627</v>
-      </c>
-      <c r="O123" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15">
+        <v>39.01593614385419</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14">
       <c r="A124" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B124">
-        <v>15.80893802642822</v>
+        <v>14.27546215057373</v>
       </c>
       <c r="C124">
-        <v>15.98116779327393</v>
+        <v>14.34320259094238</v>
       </c>
       <c r="D124">
-        <v>15.75280857086182</v>
+        <v>14.07401466369629</v>
       </c>
       <c r="E124">
-        <v>15.80844593048096</v>
+        <v>14.1023006439209</v>
       </c>
       <c r="F124">
-        <v>92251904</v>
+        <v>0</v>
       </c>
       <c r="G124">
-        <v>15.17083157368472</v>
+        <v>14.78038672333881</v>
       </c>
       <c r="H124">
-        <v>15.218168592453</v>
+        <v>14.96946978569031</v>
       </c>
       <c r="I124">
-        <v>14.93023726145426</v>
+        <v>15.22186632156372</v>
       </c>
       <c r="L124">
-        <v>70.26203211499202</v>
+        <v>34.82774839011908</v>
       </c>
       <c r="M124">
-        <v>65.38115420831629</v>
-      </c>
-      <c r="O124" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15">
+        <v>36.91568017371898</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14">
       <c r="A125" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B125">
-        <v>15.80411434173584</v>
+        <v>14.10312938690186</v>
       </c>
       <c r="C125">
-        <v>16.09230613708496</v>
+        <v>14.27685165405273</v>
       </c>
       <c r="D125">
-        <v>15.63422298431396</v>
+        <v>14.04313278198242</v>
       </c>
       <c r="E125">
-        <v>15.82054805755615</v>
+        <v>14.14373588562012</v>
       </c>
       <c r="F125">
-        <v>84131008</v>
+        <v>8490624</v>
       </c>
       <c r="G125">
-        <v>15.22989670858212</v>
+        <v>14.72250937445529</v>
       </c>
       <c r="H125">
-        <v>15.28644442558289</v>
+        <v>14.88969540596008</v>
       </c>
       <c r="I125">
-        <v>14.95882908503214</v>
+        <v>15.19333508809408</v>
       </c>
       <c r="L125">
-        <v>70.5153440722132</v>
+        <v>36.22395031396938</v>
       </c>
       <c r="M125">
-        <v>65.55732503898561</v>
-      </c>
-      <c r="O125" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15">
+        <v>37.77569004230082</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14">
       <c r="A126" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B126">
-        <v>15.82060146331787</v>
+        <v>14.14336967468262</v>
       </c>
       <c r="C126">
-        <v>16.33771705627441</v>
+        <v>14.41154193878174</v>
       </c>
       <c r="D126">
-        <v>15.7667646408081</v>
+        <v>14.11254501342773</v>
       </c>
       <c r="E126">
-        <v>16.11075401306152</v>
+        <v>14.24699020385742</v>
       </c>
       <c r="F126">
-        <v>83672256</v>
+        <v>0</v>
       </c>
       <c r="G126">
-        <v>15.30997464535298</v>
+        <v>14.6792803589464</v>
       </c>
       <c r="H126">
-        <v>15.34921770095825</v>
+        <v>14.81867918968201</v>
       </c>
       <c r="I126">
-        <v>15.00353225072225</v>
+        <v>15.15158878962199</v>
       </c>
       <c r="L126">
-        <v>76.02474906281157</v>
+        <v>39.83725056547537</v>
       </c>
       <c r="M126">
-        <v>69.55792368345408</v>
-      </c>
-      <c r="O126" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15">
+        <v>39.97183063556637</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14">
       <c r="A127" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B127">
-        <v>16.10344696044922</v>
+        <v>14.24808311462402</v>
       </c>
       <c r="C127">
-        <v>16.12569046020508</v>
+        <v>14.32032585144043</v>
       </c>
       <c r="D127">
-        <v>15.61963367462158</v>
+        <v>14.00468444824219</v>
       </c>
       <c r="E127">
-        <v>15.8931131362915</v>
+        <v>14.15904521942139</v>
       </c>
       <c r="F127">
-        <v>65312576</v>
+        <v>0</v>
       </c>
       <c r="G127">
-        <v>15.3629872354383</v>
+        <v>14.63198625535321</v>
       </c>
       <c r="H127">
-        <v>15.38964161872864</v>
+        <v>14.74553852081299</v>
       </c>
       <c r="I127">
-        <v>15.05617278416952</v>
+        <v>15.11815738677979</v>
       </c>
       <c r="L127">
-        <v>65.67159108278823</v>
+        <v>37.78593720009083</v>
       </c>
       <c r="M127">
-        <v>63.59235502559837</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15">
+        <v>38.71838690650277</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14">
       <c r="A128" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B128">
-        <v>15.8928632736206</v>
+        <v>14.15828609466553</v>
       </c>
       <c r="C128">
-        <v>15.95187950134277</v>
+        <v>14.27721214294434</v>
       </c>
       <c r="D128">
-        <v>15.54432582855225</v>
+        <v>13.9816083908081</v>
       </c>
       <c r="E128">
-        <v>15.72164440155029</v>
+        <v>14.02618026733398</v>
       </c>
       <c r="F128">
-        <v>17579008</v>
+        <v>9919648</v>
       </c>
       <c r="G128">
-        <v>15.39559243235757</v>
+        <v>14.5769129837151</v>
       </c>
       <c r="H128">
-        <v>15.41470332145691</v>
+        <v>14.66026568412781</v>
       </c>
       <c r="I128">
-        <v>15.10908196767171</v>
+        <v>15.06893631617228</v>
       </c>
       <c r="L128">
-        <v>58.59861490606476</v>
+        <v>34.74513264097524</v>
       </c>
       <c r="M128">
-        <v>59.27881426327278</v>
+        <v>36.83889096255754</v>
       </c>
     </row>
     <row r="129" spans="1:14">
@@ -5240,34 +5246,34 @@
         <v>141</v>
       </c>
       <c r="B129">
-        <v>15.73204803466797</v>
+        <v>14.03040599822998</v>
       </c>
       <c r="C129">
-        <v>15.74541854858398</v>
+        <v>14.24785709381104</v>
       </c>
       <c r="D129">
-        <v>15.252366065979</v>
+        <v>13.92731189727783</v>
       </c>
       <c r="E129">
-        <v>15.2796220779419</v>
+        <v>14.23567008972168</v>
       </c>
       <c r="F129">
         <v>0</v>
       </c>
       <c r="G129">
-        <v>15.38504967286524</v>
+        <v>14.54589090244297</v>
       </c>
       <c r="H129">
-        <v>15.43052649497986</v>
+        <v>14.59696898460388</v>
       </c>
       <c r="I129">
-        <v>15.15043849945068</v>
+        <v>15.00896355311076</v>
       </c>
       <c r="L129">
-        <v>44.65179087554182</v>
+        <v>42.89642751795155</v>
       </c>
       <c r="M129">
-        <v>49.88498272950808</v>
+        <v>41.6485364621994</v>
       </c>
     </row>
     <row r="130" spans="1:14">
@@ -5275,34 +5281,34 @@
         <v>142</v>
       </c>
       <c r="B130">
-        <v>15.27962493896484</v>
+        <v>14.23535251617432</v>
       </c>
       <c r="C130">
-        <v>15.48305034637451</v>
+        <v>14.23535251617432</v>
       </c>
       <c r="D130">
-        <v>15.21802520751953</v>
+        <v>13.96270656585693</v>
       </c>
       <c r="E130">
-        <v>15.46086406707764</v>
+        <v>14.01983737945557</v>
       </c>
       <c r="F130">
         <v>0</v>
       </c>
       <c r="G130">
-        <v>15.39194189052091</v>
+        <v>14.49806785489866</v>
       </c>
       <c r="H130">
-        <v>15.46357865333557</v>
+        <v>14.52325868606567</v>
       </c>
       <c r="I130">
-        <v>15.19293947219849</v>
+        <v>14.94192371368408</v>
       </c>
       <c r="L130">
-        <v>50.12722596811994</v>
+        <v>37.4711978535679</v>
       </c>
       <c r="M130">
-        <v>53.1624384736842</v>
+        <v>38.40381991275641</v>
       </c>
     </row>
     <row r="131" spans="1:14">
@@ -5310,34 +5316,34 @@
         <v>143</v>
       </c>
       <c r="B131">
-        <v>15.4606819152832</v>
+        <v>14.01997947692871</v>
       </c>
       <c r="C131">
-        <v>15.4606819152832</v>
+        <v>14.02603149414062</v>
       </c>
       <c r="D131">
-        <v>15.18244361877441</v>
+        <v>13.86475276947022</v>
       </c>
       <c r="E131">
-        <v>15.28917980194092</v>
+        <v>14.01847743988037</v>
       </c>
       <c r="F131">
-        <v>0</v>
+        <v>3363328</v>
       </c>
       <c r="G131">
-        <v>15.38259988246818</v>
+        <v>14.45446872626063</v>
       </c>
       <c r="H131">
-        <v>15.44806303977966</v>
+        <v>14.4544762134552</v>
       </c>
       <c r="I131">
-        <v>15.22819544474284</v>
+        <v>14.86021693547567</v>
       </c>
       <c r="L131">
-        <v>45.34660774581122</v>
+        <v>37.43763489183988</v>
       </c>
       <c r="M131">
-        <v>49.83751475315523</v>
+        <v>38.38352865592164</v>
       </c>
     </row>
     <row r="132" spans="1:14">
@@ -5345,34 +5351,34 @@
         <v>144</v>
       </c>
       <c r="B132">
-        <v>15.30832767486572</v>
+        <v>14.01982498168945</v>
       </c>
       <c r="C132">
-        <v>15.49026203155518</v>
+        <v>14.04485988616943</v>
       </c>
       <c r="D132">
-        <v>15.08942031860352</v>
+        <v>13.7752161026001</v>
       </c>
       <c r="E132">
-        <v>15.19322204589844</v>
+        <v>13.84230327606201</v>
       </c>
       <c r="F132">
-        <v>40344896</v>
+        <v>4662496</v>
       </c>
       <c r="G132">
-        <v>15.3653837155073</v>
+        <v>14.39881732169712</v>
       </c>
       <c r="H132">
-        <v>15.4344425201416</v>
+        <v>14.36686358451843</v>
       </c>
       <c r="I132">
-        <v>15.25982227325439</v>
+        <v>14.78796952565511</v>
       </c>
       <c r="L132">
-        <v>42.78114948876025</v>
+        <v>33.11487643503094</v>
       </c>
       <c r="M132">
-        <v>48.02943114437197</v>
+        <v>35.74841922247901</v>
       </c>
     </row>
     <row r="133" spans="1:14">
@@ -5380,34 +5386,34 @@
         <v>145</v>
       </c>
       <c r="B133">
-        <v>15.19201755523682</v>
+        <v>13.84083843231201</v>
       </c>
       <c r="C133">
-        <v>15.19201755523682</v>
+        <v>13.88880348205566</v>
       </c>
       <c r="D133">
-        <v>14.29185104370117</v>
+        <v>13.54328060150146</v>
       </c>
       <c r="E133">
-        <v>14.29185104370117</v>
+        <v>13.5810546875</v>
       </c>
       <c r="F133">
-        <v>25312480</v>
+        <v>931104</v>
       </c>
       <c r="G133">
-        <v>15.2677898362522</v>
+        <v>14.32447526404284</v>
       </c>
       <c r="H133">
-        <v>15.36623706817627</v>
+        <v>14.26406373977661</v>
       </c>
       <c r="I133">
-        <v>15.2596108118693</v>
+        <v>14.71498963038127</v>
       </c>
       <c r="L133">
-        <v>26.7741054638678</v>
+        <v>27.76633484105418</v>
       </c>
       <c r="M133">
-        <v>35.13482440592593</v>
+        <v>32.2163697609813</v>
       </c>
       <c r="N133" t="s">
         <v>195</v>
@@ -5418,34 +5424,34 @@
         <v>146</v>
       </c>
       <c r="B134">
-        <v>14.29704189300537</v>
+        <v>13.58055400848389</v>
       </c>
       <c r="C134">
-        <v>14.68309497833252</v>
+        <v>13.82700538635254</v>
       </c>
       <c r="D134">
-        <v>14.24902248382568</v>
+        <v>13.53399658203125</v>
       </c>
       <c r="E134">
-        <v>14.6515474319458</v>
+        <v>13.78260231018066</v>
       </c>
       <c r="F134">
-        <v>49854912</v>
+        <v>655040</v>
       </c>
       <c r="G134">
-        <v>15.21176779949707</v>
+        <v>14.275214086419</v>
       </c>
       <c r="H134">
-        <v>15.33413724899292</v>
+        <v>14.19492921829224</v>
       </c>
       <c r="I134">
-        <v>15.26919059753418</v>
+        <v>14.64817641576131</v>
       </c>
       <c r="L134">
-        <v>37.30523564635012</v>
+        <v>36.64718253632357</v>
       </c>
       <c r="M134">
-        <v>41.84459845161099</v>
+        <v>37.35847178455786</v>
       </c>
     </row>
     <row r="135" spans="1:14">
@@ -5453,34 +5459,34 @@
         <v>147</v>
       </c>
       <c r="B135">
-        <v>14.64986896514893</v>
+        <v>13.78394889831543</v>
       </c>
       <c r="C135">
-        <v>14.78550243377686</v>
+        <v>13.86069774627686</v>
       </c>
       <c r="D135">
-        <v>14.48666763305664</v>
+        <v>13.73881149291992</v>
       </c>
       <c r="E135">
-        <v>14.78550243377686</v>
+        <v>13.76033782958984</v>
       </c>
       <c r="F135">
-        <v>14122112</v>
+        <v>0</v>
       </c>
       <c r="G135">
-        <v>15.17301640261341</v>
+        <v>14.22840715397999</v>
       </c>
       <c r="H135">
-        <v>15.30662989616394</v>
+        <v>14.12949266433716</v>
       </c>
       <c r="I135">
-        <v>15.28020629882812</v>
+        <v>14.58221356074015</v>
       </c>
       <c r="L135">
-        <v>40.86816361419707</v>
+        <v>36.09566762394105</v>
       </c>
       <c r="M135">
-        <v>44.16114147273885</v>
+        <v>37.02433620928103</v>
       </c>
     </row>
     <row r="136" spans="1:14">
@@ -5488,34 +5494,34 @@
         <v>148</v>
       </c>
       <c r="B136">
-        <v>14.78441524505615</v>
+        <v>13.75775623321533</v>
       </c>
       <c r="C136">
-        <v>15.0015697479248</v>
+        <v>13.89686870574951</v>
       </c>
       <c r="D136">
-        <v>14.72720623016357</v>
+        <v>13.64844512939453</v>
       </c>
       <c r="E136">
-        <v>14.99967288970947</v>
+        <v>13.85088062286377</v>
       </c>
       <c r="F136">
-        <v>29714368</v>
+        <v>2935904</v>
       </c>
       <c r="G136">
-        <v>15.15725790144033</v>
+        <v>14.19408656024215</v>
       </c>
       <c r="H136">
-        <v>15.29681811332703</v>
+        <v>14.08731880187988</v>
       </c>
       <c r="I136">
-        <v>15.2850191116333</v>
+        <v>14.52166576385498</v>
       </c>
       <c r="L136">
-        <v>46.35197667761472</v>
+        <v>40.21212505731047</v>
       </c>
       <c r="M136">
-        <v>47.74509742597189</v>
+        <v>39.39814396406466</v>
       </c>
     </row>
     <row r="137" spans="1:14">
@@ -5523,34 +5529,34 @@
         <v>149</v>
       </c>
       <c r="B137">
-        <v>15.00528430938721</v>
+        <v>13.85132122039795</v>
       </c>
       <c r="C137">
-        <v>15.61361122131348</v>
+        <v>13.90846824645996</v>
       </c>
       <c r="D137">
-        <v>14.90183925628662</v>
+        <v>13.73272514343262</v>
       </c>
       <c r="E137">
-        <v>15.49937915802002</v>
+        <v>13.73272514343262</v>
       </c>
       <c r="F137">
-        <v>96567808</v>
+        <v>23968</v>
       </c>
       <c r="G137">
-        <v>15.18835983385666</v>
+        <v>14.15214461325947</v>
       </c>
       <c r="H137">
-        <v>15.30713782310486</v>
+        <v>14.04690704345703</v>
       </c>
       <c r="I137">
-        <v>15.29884392420451</v>
+        <v>14.45869464874268</v>
       </c>
       <c r="L137">
-        <v>56.85471170786615</v>
+        <v>36.73788386997059</v>
       </c>
       <c r="M137">
-        <v>55.00211468172257</v>
+        <v>37.41608835720533</v>
       </c>
     </row>
     <row r="138" spans="1:14">
@@ -5558,34 +5564,34 @@
         <v>150</v>
       </c>
       <c r="B138">
-        <v>15.49981594085693</v>
+        <v>13.73215198516846</v>
       </c>
       <c r="C138">
-        <v>15.57958984375</v>
+        <v>14.16918754577637</v>
       </c>
       <c r="D138">
-        <v>15.07675170898438</v>
+        <v>13.72673797607422</v>
       </c>
       <c r="E138">
-        <v>15.1619873046875</v>
+        <v>14.16918754577637</v>
       </c>
       <c r="F138">
-        <v>42571392</v>
+        <v>25408192</v>
       </c>
       <c r="G138">
-        <v>15.18596233120492</v>
+        <v>14.153693970761</v>
       </c>
       <c r="H138">
-        <v>15.31108732223511</v>
+        <v>14.01940336227417</v>
       </c>
       <c r="I138">
-        <v>15.29689648946126</v>
+        <v>14.40661300023397</v>
       </c>
       <c r="L138">
-        <v>49.49468241118934</v>
+        <v>53.45103848892307</v>
       </c>
       <c r="M138">
-        <v>49.95741254856664</v>
+        <v>47.85250038533304</v>
       </c>
     </row>
     <row r="139" spans="1:14">
@@ -5593,34 +5599,34 @@
         <v>151</v>
       </c>
       <c r="B139">
-        <v>15.16012954711914</v>
+        <v>14.169358253479</v>
       </c>
       <c r="C139">
-        <v>15.50281238555908</v>
+        <v>14.20112705230713</v>
       </c>
       <c r="D139">
-        <v>14.69491386413574</v>
+        <v>13.99253940582275</v>
       </c>
       <c r="E139">
-        <v>15.50281238555908</v>
+        <v>14.20112705230713</v>
       </c>
       <c r="F139">
-        <v>20852288</v>
+        <v>4103648</v>
       </c>
       <c r="G139">
-        <v>15.21476688160075</v>
+        <v>14.15800606908338</v>
       </c>
       <c r="H139">
-        <v>15.334028673172</v>
+        <v>14.0029619216919</v>
       </c>
       <c r="I139">
-        <v>15.31488494873047</v>
+        <v>14.36326376597087</v>
       </c>
       <c r="L139">
-        <v>55.97195221473815</v>
+        <v>54.44190278248943</v>
       </c>
       <c r="M139">
-        <v>54.49758382830775</v>
+        <v>48.52892253265183</v>
       </c>
     </row>
     <row r="140" spans="1:14">
@@ -5628,34 +5634,34 @@
         <v>152</v>
       </c>
       <c r="B140">
-        <v>15.50299167633057</v>
+        <v>14.20168685913086</v>
       </c>
       <c r="C140">
-        <v>16.32089233398438</v>
+        <v>14.2797441482544</v>
       </c>
       <c r="D140">
-        <v>15.39886951446533</v>
+        <v>14.13094902038574</v>
       </c>
       <c r="E140">
-        <v>16.03485298156738</v>
+        <v>14.14640998840332</v>
       </c>
       <c r="F140">
-        <v>96699968</v>
+        <v>8054336</v>
       </c>
       <c r="G140">
-        <v>15.2893201634159</v>
+        <v>14.15695187993065</v>
       </c>
       <c r="H140">
-        <v>15.38195810317993</v>
+        <v>14.01326537132263</v>
       </c>
       <c r="I140">
-        <v>15.35605268478394</v>
+        <v>14.31834265391032</v>
       </c>
       <c r="L140">
-        <v>64.06539808554795</v>
+        <v>52.29642847506085</v>
       </c>
       <c r="M140">
-        <v>60.51923925975873</v>
+        <v>47.39471248848658</v>
       </c>
     </row>
     <row r="141" spans="1:14">
@@ -5663,34 +5669,34 @@
         <v>153</v>
       </c>
       <c r="B141">
-        <v>16.04394149780273</v>
+        <v>14.1474723815918</v>
       </c>
       <c r="C141">
-        <v>16.31330871582031</v>
+        <v>14.1909646987915</v>
       </c>
       <c r="D141">
-        <v>15.78488254547119</v>
+        <v>14.06838893890381</v>
       </c>
       <c r="E141">
-        <v>16.03103256225586</v>
+        <v>14.1909646987915</v>
       </c>
       <c r="F141">
-        <v>101869184</v>
+        <v>4661120</v>
       </c>
       <c r="G141">
-        <v>15.35674856331044</v>
+        <v>14.16004395437254</v>
       </c>
       <c r="H141">
-        <v>15.43032474517822</v>
+        <v>14.01858696937561</v>
       </c>
       <c r="I141">
-        <v>15.37043736775716</v>
+        <v>14.27823724746704</v>
       </c>
       <c r="L141">
-        <v>63.97040283211729</v>
+        <v>53.95854853519326</v>
       </c>
       <c r="M141">
-        <v>60.45736904404527</v>
+        <v>48.45120609112647</v>
       </c>
     </row>
     <row r="142" spans="1:14">
@@ -5698,34 +5704,34 @@
         <v>154</v>
       </c>
       <c r="B142">
-        <v>16.02853775024414</v>
+        <v>14.19538593292236</v>
       </c>
       <c r="C142">
-        <v>16.47677230834961</v>
+        <v>14.30091381072998</v>
       </c>
       <c r="D142">
-        <v>16.02853775024414</v>
+        <v>14.17947101593018</v>
       </c>
       <c r="E142">
-        <v>16.46968078613281</v>
+        <v>14.28100109100342</v>
       </c>
       <c r="F142">
-        <v>97184768</v>
+        <v>6363200</v>
       </c>
       <c r="G142">
-        <v>15.45792421993066</v>
+        <v>14.17104005770262</v>
       </c>
       <c r="H142">
-        <v>15.49061331748962</v>
+        <v>14.03834643363953</v>
       </c>
       <c r="I142">
-        <v>15.40390564600627</v>
+        <v>14.23445208867391</v>
       </c>
       <c r="L142">
-        <v>69.76189880519654</v>
+        <v>57.33788085228117</v>
       </c>
       <c r="M142">
-        <v>64.89496364089497</v>
+        <v>50.60987835554341</v>
       </c>
     </row>
     <row r="143" spans="1:14">
@@ -5733,34 +5739,34 @@
         <v>155</v>
       </c>
       <c r="B143">
-        <v>16.4581184387207</v>
+        <v>14.2804069519043</v>
       </c>
       <c r="C143">
-        <v>16.52505874633789</v>
+        <v>14.33696365356445</v>
       </c>
       <c r="D143">
-        <v>15.8698205947876</v>
+        <v>14.11736106872559</v>
       </c>
       <c r="E143">
-        <v>16.00972557067871</v>
+        <v>14.11822032928467</v>
       </c>
       <c r="F143">
-        <v>29881664</v>
+        <v>3001312</v>
       </c>
       <c r="G143">
-        <v>15.50808797908957</v>
+        <v>14.16623826421008</v>
       </c>
       <c r="H143">
-        <v>15.5007719039917</v>
+        <v>14.03045258522034</v>
       </c>
       <c r="I143">
-        <v>15.41569782892863</v>
+        <v>14.18382438023885</v>
       </c>
       <c r="L143">
-        <v>58.64219401429832</v>
+        <v>49.88999711680232</v>
       </c>
       <c r="M143">
-        <v>57.59604413461512</v>
+        <v>46.7945399808956</v>
       </c>
     </row>
     <row r="144" spans="1:14">
@@ -5768,1481 +5774,1514 @@
         <v>156</v>
       </c>
       <c r="B144">
-        <v>16.00856018066406</v>
+        <v>14.11963367462158</v>
       </c>
       <c r="C144">
-        <v>16.0439510345459</v>
+        <v>14.26466655731201</v>
       </c>
       <c r="D144">
-        <v>15.76625061035156</v>
+        <v>14.10315132141113</v>
       </c>
       <c r="E144">
-        <v>15.77045154571533</v>
+        <v>14.24209594726562</v>
       </c>
       <c r="F144">
-        <v>0</v>
+        <v>2683872</v>
       </c>
       <c r="G144">
-        <v>15.53193921241918</v>
+        <v>14.17313441721513</v>
       </c>
       <c r="H144">
-        <v>15.49887218475342</v>
+        <v>14.03744235038757</v>
       </c>
       <c r="I144">
-        <v>15.43159475326538</v>
+        <v>14.15305115381877</v>
       </c>
       <c r="L144">
-        <v>53.63856981520419</v>
+        <v>54.9048309800919</v>
       </c>
       <c r="M144">
-        <v>54.18201351512948</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14">
+        <v>49.89043241851252</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15">
       <c r="A145" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B145">
-        <v>15.76338768005371</v>
+        <v>14.24221706390381</v>
       </c>
       <c r="C145">
-        <v>15.877760887146</v>
+        <v>14.32484817504883</v>
       </c>
       <c r="D145">
-        <v>15.68657684326172</v>
+        <v>14.225266456604</v>
       </c>
       <c r="E145">
-        <v>15.7869987487793</v>
+        <v>14.28608798980713</v>
       </c>
       <c r="F145">
         <v>0</v>
       </c>
       <c r="G145">
-        <v>15.55512644299738</v>
+        <v>14.1834029238144</v>
       </c>
       <c r="H145">
-        <v>15.49719471931457</v>
+        <v>14.04455995559692</v>
       </c>
       <c r="I145">
-        <v>15.44663972854614</v>
+        <v>14.12695178985596</v>
       </c>
       <c r="L145">
-        <v>53.94430077366165</v>
+        <v>56.63854239950473</v>
       </c>
       <c r="M145">
-        <v>54.38339126146989</v>
-      </c>
-    </row>
-    <row r="146" spans="1:14">
+        <v>50.98128130286673</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15">
       <c r="A146" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B146">
-        <v>15.7871904373169</v>
+        <v>14.28598403930664</v>
       </c>
       <c r="C146">
-        <v>15.8734016418457</v>
+        <v>14.39069175720215</v>
       </c>
       <c r="D146">
-        <v>15.72306728363037</v>
+        <v>14.25424957275391</v>
       </c>
       <c r="E146">
-        <v>15.73922348022461</v>
+        <v>14.37297439575195</v>
       </c>
       <c r="F146">
-        <v>3296512</v>
+        <v>0</v>
       </c>
       <c r="G146">
-        <v>15.57186253729076</v>
+        <v>14.20063669399054</v>
       </c>
       <c r="H146">
-        <v>15.47861819267273</v>
+        <v>14.05085916519165</v>
       </c>
       <c r="I146">
-        <v>15.4647502263387</v>
+        <v>14.11623900731405</v>
       </c>
       <c r="L146">
-        <v>52.81306016050565</v>
+        <v>60.05111342467682</v>
       </c>
       <c r="M146">
-        <v>53.65021204887714</v>
-      </c>
-    </row>
-    <row r="147" spans="1:14">
+        <v>53.15053794067357</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15">
       <c r="A147" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B147">
-        <v>15.74295139312744</v>
+        <v>14.37233066558838</v>
       </c>
       <c r="C147">
-        <v>15.75471591949463</v>
+        <v>14.38537311553955</v>
       </c>
       <c r="D147">
-        <v>15.54078102111816</v>
+        <v>14.31838417053223</v>
       </c>
       <c r="E147">
-        <v>15.66731452941894</v>
+        <v>14.34087467193604</v>
       </c>
       <c r="F147">
         <v>0</v>
       </c>
       <c r="G147">
-        <v>15.5805399911206</v>
+        <v>14.21338560107649</v>
       </c>
       <c r="H147">
-        <v>15.4673282623291</v>
+        <v>14.05995063781738</v>
       </c>
       <c r="I147">
-        <v>15.47722787857056</v>
+        <v>14.10956948598226</v>
       </c>
       <c r="L147">
-        <v>51.00201575472786</v>
+        <v>58.14906085235086</v>
       </c>
       <c r="M147">
-        <v>52.5028739049202</v>
-      </c>
-    </row>
-    <row r="148" spans="1:14">
+        <v>52.23091299472824</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15">
       <c r="A148" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B148">
-        <v>15.66750144958496</v>
+        <v>14.34154605865478</v>
       </c>
       <c r="C148">
-        <v>15.66750144958496</v>
+        <v>14.5466718673706</v>
       </c>
       <c r="D148">
-        <v>15.49729251861572</v>
+        <v>14.28405094146728</v>
       </c>
       <c r="E148">
-        <v>15.62185859680176</v>
+        <v>14.5466718673706</v>
       </c>
       <c r="F148">
-        <v>0</v>
+        <v>13789072</v>
       </c>
       <c r="G148">
-        <v>15.5842962280007</v>
+        <v>14.24368435255777</v>
       </c>
       <c r="H148">
-        <v>15.46233897209168</v>
+        <v>14.08597521781921</v>
       </c>
       <c r="I148">
-        <v>15.4951899210612</v>
+        <v>14.10381650924683</v>
       </c>
       <c r="L148">
-        <v>49.78786827923253</v>
+        <v>65.93192902531017</v>
       </c>
       <c r="M148">
-        <v>51.74948652997059</v>
-      </c>
-    </row>
-    <row r="149" spans="1:14">
+        <v>57.32849141516983</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15">
       <c r="A149" s="1" t="s">
         <v>161</v>
       </c>
       <c r="B149">
-        <v>15.62170791625977</v>
+        <v>14.54800605773926</v>
       </c>
       <c r="C149">
-        <v>15.87867736816406</v>
+        <v>14.62989807128906</v>
       </c>
       <c r="D149">
-        <v>15.58392143249512</v>
+        <v>14.45259475708008</v>
       </c>
       <c r="E149">
-        <v>15.7316370010376</v>
+        <v>14.50097942352295</v>
       </c>
       <c r="F149">
-        <v>0</v>
+        <v>17545072</v>
       </c>
       <c r="G149">
-        <v>15.59769084373133</v>
+        <v>14.26707481355461</v>
       </c>
       <c r="H149">
-        <v>15.48493971824646</v>
+        <v>14.09924068450928</v>
       </c>
       <c r="I149">
-        <v>15.51811164220174</v>
+        <v>14.10285062789917</v>
       </c>
       <c r="L149">
-        <v>52.83824132796489</v>
+        <v>63.00529142333524</v>
       </c>
       <c r="M149">
-        <v>53.48542891299989</v>
-      </c>
-    </row>
-    <row r="150" spans="1:14">
+        <v>55.90211281257819</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15">
       <c r="A150" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B150">
-        <v>15.73282146453857</v>
+        <v>14.49948024749756</v>
       </c>
       <c r="C150">
-        <v>15.79005241394043</v>
+        <v>14.68725681304932</v>
       </c>
       <c r="D150">
-        <v>15.48156070709228</v>
+        <v>14.4616813659668</v>
       </c>
       <c r="E150">
-        <v>15.5016040802002</v>
+        <v>14.49385261535644</v>
       </c>
       <c r="F150">
-        <v>0</v>
+        <v>20269584</v>
       </c>
       <c r="G150">
-        <v>15.58895568341032</v>
+        <v>14.28769097735477</v>
       </c>
       <c r="H150">
-        <v>15.48697671890259</v>
+        <v>14.12294144630432</v>
       </c>
       <c r="I150">
-        <v>15.53228963216146</v>
+        <v>14.1213010152181</v>
       </c>
       <c r="L150">
-        <v>46.21923693012631</v>
+        <v>62.51834203735004</v>
       </c>
       <c r="M150">
-        <v>49.46913533792951</v>
-      </c>
-    </row>
-    <row r="151" spans="1:14">
+        <v>55.66945553547165</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15">
       <c r="A151" s="1" t="s">
         <v>163</v>
       </c>
       <c r="B151">
-        <v>15.50177383422852</v>
+        <v>14.49410438537598</v>
       </c>
       <c r="C151">
-        <v>15.57986259460449</v>
+        <v>14.5400562286377</v>
       </c>
       <c r="D151">
-        <v>15.41338920593262</v>
+        <v>14.33032989501953</v>
       </c>
       <c r="E151">
-        <v>15.49404335021973</v>
+        <v>14.36849784851074</v>
       </c>
       <c r="F151">
-        <v>0</v>
+        <v>24754112</v>
       </c>
       <c r="G151">
-        <v>15.5803272894839</v>
+        <v>14.29503705655077</v>
       </c>
       <c r="H151">
-        <v>15.49721989631653</v>
+        <v>14.14044246673584</v>
       </c>
       <c r="I151">
-        <v>15.54663441975911</v>
+        <v>14.13076651891073</v>
       </c>
       <c r="J151">
-        <v>14.92277245839437</v>
+        <v>14.57693962732951</v>
       </c>
       <c r="L151">
-        <v>46.00613551845515</v>
+        <v>54.22541260092801</v>
       </c>
       <c r="M151">
-        <v>49.33799693239617</v>
-      </c>
-    </row>
-    <row r="152" spans="1:14">
+        <v>51.6014564523304</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15">
       <c r="A152" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B152">
-        <v>15.4959077835083</v>
+        <v>14.37958812713623</v>
       </c>
       <c r="C152">
-        <v>15.55900478363037</v>
+        <v>14.47426509857178</v>
       </c>
       <c r="D152">
-        <v>15.39412689208984</v>
+        <v>14.23400974273682</v>
       </c>
       <c r="E152">
-        <v>15.39412689208984</v>
+        <v>14.27828407287598</v>
       </c>
       <c r="F152">
-        <v>0</v>
+        <v>16234944</v>
       </c>
       <c r="G152">
-        <v>15.56339998062989</v>
+        <v>14.29351405803488</v>
       </c>
       <c r="H152">
-        <v>15.5072651386261</v>
+        <v>14.16224150657654</v>
       </c>
       <c r="I152">
-        <v>15.55097500483195</v>
+        <v>14.14384892781576</v>
       </c>
       <c r="J152">
-        <v>14.92901556347643</v>
+        <v>14.57298392462151</v>
       </c>
       <c r="L152">
-        <v>43.05484851080082</v>
+        <v>48.9666295114141</v>
       </c>
       <c r="M152">
-        <v>47.54428822928465</v>
-      </c>
-    </row>
-    <row r="153" spans="1:14">
+        <v>48.83567562193629</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15">
       <c r="A153" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B153">
-        <v>15.39161109924316</v>
+        <v>14.27857494354248</v>
       </c>
       <c r="C153">
-        <v>15.66324043273926</v>
+        <v>14.51519680023193</v>
       </c>
       <c r="D153">
-        <v>15.24632930755615</v>
+        <v>14.23450183868408</v>
       </c>
       <c r="E153">
-        <v>15.59455585479736</v>
+        <v>14.51519680023193</v>
       </c>
       <c r="F153">
-        <v>61144224</v>
+        <v>20252064</v>
       </c>
       <c r="G153">
-        <v>15.56623233282694</v>
+        <v>14.31366703459825</v>
       </c>
       <c r="H153">
-        <v>15.57240037918091</v>
+        <v>14.20894861221313</v>
       </c>
       <c r="I153">
-        <v>15.54390840530396</v>
+        <v>14.15181891123454</v>
       </c>
       <c r="J153">
-        <v>14.93783066667273</v>
+        <v>14.5722185322455</v>
       </c>
       <c r="L153">
-        <v>50.25615092562017</v>
+        <v>60.33214554712228</v>
       </c>
       <c r="M153">
-        <v>51.36404721716438</v>
-      </c>
-    </row>
-    <row r="154" spans="1:14">
+        <v>55.57051574789851</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15">
       <c r="A154" s="1" t="s">
         <v>166</v>
       </c>
       <c r="B154">
-        <v>15.58992958068848</v>
+        <v>14.50969314575195</v>
       </c>
       <c r="C154">
-        <v>15.89023876190186</v>
+        <v>14.85619640350342</v>
       </c>
       <c r="D154">
-        <v>15.50377750396728</v>
+        <v>14.43019962310791</v>
       </c>
       <c r="E154">
-        <v>15.63705158233643</v>
+        <v>14.72452735900879</v>
       </c>
       <c r="F154">
-        <v>75540416</v>
+        <v>48021728</v>
       </c>
       <c r="G154">
-        <v>15.57267044641871</v>
+        <v>14.35101797318102</v>
       </c>
       <c r="H154">
-        <v>15.62167558670044</v>
+        <v>14.25604486465454</v>
       </c>
       <c r="I154">
-        <v>15.5381952603658</v>
+        <v>14.17255980173747</v>
       </c>
       <c r="J154">
-        <v>14.94709187085371</v>
+        <v>14.57423586769931</v>
       </c>
       <c r="L154">
-        <v>51.71269807895558</v>
+        <v>67.52201149802748</v>
       </c>
       <c r="M154">
-        <v>52.15948910914005</v>
-      </c>
-    </row>
-    <row r="155" spans="1:14">
+        <v>60.51601306219553</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15">
       <c r="A155" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B155">
-        <v>15.63797950744629</v>
+        <v>14.72476482391357</v>
       </c>
       <c r="C155">
-        <v>15.69222068786621</v>
+        <v>14.80225849151611</v>
       </c>
       <c r="D155">
-        <v>15.0024824142456</v>
+        <v>14.6004810333252</v>
       </c>
       <c r="E155">
-        <v>15.16529273986816</v>
+        <v>14.6004810333252</v>
       </c>
       <c r="F155">
-        <v>63785696</v>
+        <v>3916096</v>
       </c>
       <c r="G155">
-        <v>15.53563610945957</v>
+        <v>14.37369643319413</v>
       </c>
       <c r="H155">
-        <v>15.64066510200501</v>
+        <v>14.29805202484131</v>
       </c>
       <c r="I155">
-        <v>15.51635341644287</v>
+        <v>14.1877846399943</v>
       </c>
       <c r="J155">
-        <v>14.949981948589</v>
+        <v>14.57458348578707</v>
       </c>
       <c r="L155">
-        <v>37.86563410974964</v>
+        <v>60.24269998884078</v>
       </c>
       <c r="M155">
-        <v>43.62880578408599</v>
-      </c>
-    </row>
-    <row r="156" spans="1:14">
+        <v>56.50234781476499</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15">
       <c r="A156" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B156">
-        <v>15.16312599182129</v>
+        <v>14.5980749130249</v>
       </c>
       <c r="C156">
-        <v>15.37148284912109</v>
+        <v>14.69764423370361</v>
       </c>
       <c r="D156">
-        <v>14.81637668609619</v>
+        <v>14.52258014678955</v>
       </c>
       <c r="E156">
-        <v>15.06906890869141</v>
+        <v>14.54494285583496</v>
       </c>
       <c r="F156">
-        <v>73304672</v>
+        <v>2682976</v>
       </c>
       <c r="G156">
-        <v>15.49322090938973</v>
+        <v>14.38926428979784</v>
       </c>
       <c r="H156">
-        <v>15.6441349029541</v>
+        <v>14.33275513648987</v>
       </c>
       <c r="I156">
-        <v>15.48163057963053</v>
+        <v>14.19771639506022</v>
       </c>
       <c r="J156">
-        <v>14.95155925931883</v>
+        <v>14.57419089466188</v>
       </c>
       <c r="L156">
-        <v>35.67371769008171</v>
+        <v>57.13996186965306</v>
       </c>
       <c r="M156">
-        <v>42.11579247856939</v>
-      </c>
-    </row>
-    <row r="157" spans="1:14">
+        <v>54.75145755010113</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15">
       <c r="A157" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B157">
-        <v>15.07131481170654</v>
+        <v>14.54506397247314</v>
       </c>
       <c r="C157">
-        <v>15.11561107635498</v>
+        <v>14.66125297546387</v>
       </c>
       <c r="D157">
-        <v>14.62159729003906</v>
+        <v>14.29977416992188</v>
       </c>
       <c r="E157">
-        <v>14.69435787200928</v>
+        <v>14.66125297546387</v>
       </c>
       <c r="F157">
-        <v>65475328</v>
+        <v>24385504</v>
       </c>
       <c r="G157">
-        <v>15.4205969969006</v>
+        <v>14.4139905339493</v>
       </c>
       <c r="H157">
-        <v>15.60388383865356</v>
+        <v>14.37918152809143</v>
       </c>
       <c r="I157">
-        <v>15.44167207082113</v>
+        <v>14.21445665359497</v>
       </c>
       <c r="J157">
-        <v>14.94815261842732</v>
+        <v>14.57534403480495</v>
       </c>
       <c r="L157">
-        <v>28.45707269032496</v>
+        <v>61.77798273751739</v>
       </c>
       <c r="M157">
-        <v>36.76839337451205</v>
-      </c>
-      <c r="N157" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="158" spans="1:14">
+        <v>57.70721809881194</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15">
       <c r="A158" s="1" t="s">
         <v>170</v>
       </c>
       <c r="B158">
-        <v>14.69743728637695</v>
+        <v>14.67214584350586</v>
       </c>
       <c r="C158">
-        <v>14.91668128967285</v>
+        <v>15.04484939575195</v>
       </c>
       <c r="D158">
-        <v>14.52067279815674</v>
+        <v>14.61705207824707</v>
       </c>
       <c r="E158">
-        <v>14.54096031188965</v>
+        <v>14.99920177459717</v>
       </c>
       <c r="F158">
-        <v>45777216</v>
+        <v>67940320</v>
       </c>
       <c r="G158">
-        <v>15.34063002553597</v>
+        <v>14.46719155582638</v>
       </c>
       <c r="H158">
-        <v>15.57283248901367</v>
+        <v>14.42068223953247</v>
       </c>
       <c r="I158">
-        <v>15.40231593449911</v>
+        <v>14.24689070383708</v>
       </c>
       <c r="J158">
-        <v>14.94275934284404</v>
+        <v>14.58095804460353</v>
       </c>
       <c r="L158">
-        <v>26.03177403392422</v>
+        <v>71.76530686884885</v>
       </c>
       <c r="M158">
-        <v>34.81933543244737</v>
-      </c>
-      <c r="N158" t="s">
+        <v>64.88479632226591</v>
+      </c>
+      <c r="O158" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="159" spans="1:14">
+    <row r="159" spans="1:15">
       <c r="A159" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B159">
-        <v>14.54454135894775</v>
+        <v>14.99841117858887</v>
       </c>
       <c r="C159">
-        <v>14.85884380340576</v>
+        <v>15.06323909759522</v>
       </c>
       <c r="D159">
-        <v>14.54454135894775</v>
+        <v>14.95541763305664</v>
       </c>
       <c r="E159">
-        <v>14.71926116943359</v>
+        <v>14.98950576782227</v>
       </c>
       <c r="F159">
-        <v>9292160</v>
+        <v>13947872</v>
       </c>
       <c r="G159">
-        <v>15.28414194770848</v>
+        <v>14.51467466600782</v>
       </c>
       <c r="H159">
-        <v>15.5336549282074</v>
+        <v>14.46010117530823</v>
       </c>
       <c r="I159">
-        <v>15.38363723754883</v>
+        <v>14.27201855977376</v>
       </c>
       <c r="J159">
-        <v>14.93979910213662</v>
+        <v>14.58636927272563</v>
       </c>
       <c r="L159">
-        <v>33.44862478043128</v>
+        <v>71.16510525107621</v>
       </c>
       <c r="M159">
-        <v>38.87523298625214</v>
-      </c>
-    </row>
-    <row r="160" spans="1:14">
+        <v>64.54633429567666</v>
+      </c>
+      <c r="O159" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15">
       <c r="A160" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B160">
-        <v>14.71570014953613</v>
+        <v>14.98855972290039</v>
       </c>
       <c r="C160">
-        <v>14.84451103210449</v>
+        <v>15.12533187866211</v>
       </c>
       <c r="D160">
-        <v>14.51686668395996</v>
+        <v>14.9131555557251</v>
       </c>
       <c r="E160">
-        <v>14.52995586395264</v>
+        <v>14.96645736694336</v>
       </c>
       <c r="F160">
         <v>0</v>
       </c>
       <c r="G160">
-        <v>15.21557957645795</v>
+        <v>14.55574582063833</v>
       </c>
       <c r="H160">
-        <v>15.45841007232666</v>
+        <v>14.50110354423523</v>
       </c>
       <c r="I160">
-        <v>15.35260696411133</v>
+        <v>14.30357255935669</v>
       </c>
       <c r="J160">
-        <v>14.9343707148759</v>
+        <v>14.59140355211924</v>
       </c>
       <c r="L160">
-        <v>29.87106485044474</v>
+        <v>69.6082657568432</v>
       </c>
       <c r="M160">
-        <v>36.29305731829312</v>
-      </c>
-      <c r="N160" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="161" spans="1:14">
+        <v>63.69576416198694</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15">
       <c r="A161" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B161">
-        <v>14.53238582611084</v>
+        <v>14.96624374389648</v>
       </c>
       <c r="C161">
-        <v>14.58058547973633</v>
+        <v>15.04434776306152</v>
       </c>
       <c r="D161">
-        <v>13.88342094421387</v>
+        <v>14.94970893859863</v>
       </c>
       <c r="E161">
-        <v>13.94034099578857</v>
+        <v>15.00504016876221</v>
       </c>
       <c r="F161">
-        <v>36697024</v>
+        <v>223200</v>
       </c>
       <c r="G161">
-        <v>15.0996487963971</v>
+        <v>14.59659076137686</v>
       </c>
       <c r="H161">
-        <v>15.3538754940033</v>
+        <v>14.54180731773377</v>
       </c>
       <c r="I161">
-        <v>15.30764567057292</v>
+        <v>14.33645798365275</v>
       </c>
       <c r="J161">
-        <v>14.9212047583317</v>
+        <v>14.59688218280326</v>
       </c>
       <c r="L161">
-        <v>21.72801809486754</v>
+        <v>70.81081853638652</v>
       </c>
       <c r="M161">
-        <v>29.68043939695497</v>
-      </c>
-      <c r="N161" t="s">
+        <v>64.53820025587102</v>
+      </c>
+      <c r="O161" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="162" spans="1:14">
+    <row r="162" spans="1:15">
       <c r="A162" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B162">
-        <v>13.94470882415772</v>
+        <v>15.00423812866211</v>
       </c>
       <c r="C162">
-        <v>14.13947486877441</v>
+        <v>15.21818828582764</v>
       </c>
       <c r="D162">
-        <v>13.59490299224854</v>
+        <v>14.96949005126953</v>
       </c>
       <c r="E162">
-        <v>14.08453273773193</v>
+        <v>15.21818828582764</v>
       </c>
       <c r="F162">
-        <v>25329216</v>
+        <v>10463008</v>
       </c>
       <c r="G162">
-        <v>15.00736551833663</v>
+        <v>14.65309962723602</v>
       </c>
       <c r="H162">
-        <v>15.23461809158325</v>
+        <v>14.58866667747498</v>
       </c>
       <c r="I162">
-        <v>15.2706893603007</v>
+        <v>14.38232081731161</v>
       </c>
       <c r="J162">
-        <v>14.91012300971449</v>
+        <v>14.60511140271087</v>
       </c>
       <c r="L162">
-        <v>27.18884754714092</v>
+        <v>76.57213399704062</v>
       </c>
       <c r="M162">
-        <v>32.90022945885691</v>
-      </c>
-      <c r="N162" t="s">
+        <v>68.83999431852436</v>
+      </c>
+      <c r="O162" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="163" spans="1:14">
+    <row r="163" spans="1:15">
       <c r="A163" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B163">
-        <v>14.09875106811523</v>
+        <v>15.21765613555908</v>
       </c>
       <c r="C163">
-        <v>14.1878080368042</v>
+        <v>15.51798629760742</v>
       </c>
       <c r="D163">
-        <v>13.86169338226318</v>
+        <v>14.99749374389648</v>
       </c>
       <c r="E163">
-        <v>13.8858118057251</v>
+        <v>15.51798629760742</v>
       </c>
       <c r="F163">
-        <v>5696</v>
+        <v>66045312</v>
       </c>
       <c r="G163">
-        <v>14.9054060899174</v>
+        <v>14.73172568817887</v>
       </c>
       <c r="H163">
-        <v>15.12842240333557</v>
+        <v>14.65865497589111</v>
       </c>
       <c r="I163">
-        <v>15.25715471903483</v>
+        <v>14.44688520431519</v>
       </c>
       <c r="J163">
-        <v>14.89655597390006</v>
+        <v>14.61720246092142</v>
       </c>
       <c r="L163">
-        <v>24.53490006062781</v>
+        <v>82.14774621965837</v>
       </c>
       <c r="M163">
-        <v>30.80667553305803</v>
-      </c>
-      <c r="N163" t="s">
+        <v>73.67680769227212</v>
+      </c>
+      <c r="O163" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="164" spans="1:14">
+    <row r="164" spans="1:15">
       <c r="A164" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B164">
-        <v>13.88231945037842</v>
+        <v>15.53997421264648</v>
       </c>
       <c r="C164">
-        <v>14.30352401733398</v>
+        <v>15.77301692962646</v>
       </c>
       <c r="D164">
-        <v>13.81754112243652</v>
+        <v>15.53997421264648</v>
       </c>
       <c r="E164">
-        <v>14.27609729766846</v>
+        <v>15.6532096862793</v>
       </c>
       <c r="F164">
-        <v>16626880</v>
+        <v>27052608</v>
       </c>
       <c r="G164">
-        <v>14.84819619971295</v>
+        <v>14.81549696073346</v>
       </c>
       <c r="H164">
-        <v>15.05370469093323</v>
+        <v>14.7292106628418</v>
       </c>
       <c r="I164">
-        <v>15.24463971455892</v>
+        <v>14.50923878351847</v>
       </c>
       <c r="J164">
-        <v>14.88833797818838</v>
+        <v>14.63092441092616</v>
       </c>
       <c r="L164">
-        <v>37.92311703729419</v>
+        <v>84.07134512710809</v>
       </c>
       <c r="M164">
-        <v>39.01462042388061</v>
-      </c>
-    </row>
-    <row r="165" spans="1:14">
+        <v>75.52241033230719</v>
+      </c>
+      <c r="O164" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15">
       <c r="A165" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B165">
-        <v>14.27546215057373</v>
+        <v>15.65151596069336</v>
       </c>
       <c r="C165">
-        <v>14.34320259094238</v>
+        <v>15.69612407684326</v>
       </c>
       <c r="D165">
-        <v>14.07401466369629</v>
+        <v>15.41164493560791</v>
       </c>
       <c r="E165">
-        <v>14.1023006439209</v>
+        <v>15.4546537399292</v>
       </c>
       <c r="F165">
-        <v>0</v>
+        <v>21443232</v>
       </c>
       <c r="G165">
-        <v>14.78038751282276</v>
+        <v>14.87360212247853</v>
       </c>
       <c r="H165">
-        <v>14.96946978569031</v>
+        <v>14.7876389503479</v>
       </c>
       <c r="I165">
-        <v>15.22186632156372</v>
+        <v>14.56571598052978</v>
       </c>
       <c r="J165">
-        <v>14.87792688766828</v>
+        <v>14.64183473316461</v>
       </c>
       <c r="L165">
-        <v>34.82774096217369</v>
+        <v>71.3682357883997</v>
       </c>
       <c r="M165">
-        <v>36.91465229800065</v>
-      </c>
-    </row>
-    <row r="166" spans="1:14">
+        <v>67.98490070451633</v>
+      </c>
+      <c r="O165" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15">
       <c r="A166" s="1" t="s">
         <v>178</v>
       </c>
       <c r="B166">
-        <v>14.10312938690186</v>
+        <v>15.46727180480957</v>
       </c>
       <c r="C166">
-        <v>14.27685165405273</v>
+        <v>15.90734195709228</v>
       </c>
       <c r="D166">
-        <v>14.04313278198242</v>
+        <v>15.42700862884522</v>
       </c>
       <c r="E166">
-        <v>14.14373588562012</v>
+        <v>15.86642169952393</v>
       </c>
       <c r="F166">
-        <v>8490624</v>
+        <v>98624256</v>
       </c>
       <c r="G166">
-        <v>14.72251009216797</v>
+        <v>14.96385844766447</v>
       </c>
       <c r="H166">
-        <v>14.88969540596008</v>
+        <v>14.8623113155365</v>
       </c>
       <c r="I166">
-        <v>15.19333508809408</v>
+        <v>14.63290068308512</v>
       </c>
       <c r="J166">
-        <v>14.86820250353519</v>
+        <v>14.65805442808328</v>
       </c>
       <c r="L166">
-        <v>36.22394231219312</v>
+        <v>78.8308073688907</v>
       </c>
       <c r="M166">
-        <v>37.77458852199324</v>
-      </c>
-    </row>
-    <row r="167" spans="1:14">
+        <v>73.82030505962496</v>
+      </c>
+      <c r="O166" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15">
       <c r="A167" s="1" t="s">
         <v>179</v>
       </c>
       <c r="B167">
-        <v>14.14336967468262</v>
+        <v>15.86579036712646</v>
       </c>
       <c r="C167">
-        <v>14.41154193878174</v>
+        <v>16.02680587768555</v>
       </c>
       <c r="D167">
-        <v>14.11254501342773</v>
+        <v>15.8040771484375</v>
       </c>
       <c r="E167">
-        <v>14.24699020385742</v>
+        <v>15.81774806976318</v>
       </c>
       <c r="F167">
-        <v>0</v>
+        <v>60614272</v>
       </c>
       <c r="G167">
-        <v>14.67928101141247</v>
+        <v>15.04148477694617</v>
       </c>
       <c r="H167">
-        <v>14.81867918968201</v>
+        <v>14.93615498542786</v>
       </c>
       <c r="I167">
-        <v>15.15158878962199</v>
+        <v>14.70240144729614</v>
       </c>
       <c r="J167">
-        <v>14.85997452605602</v>
+        <v>14.67341460876778</v>
       </c>
       <c r="L167">
-        <v>39.83724122764951</v>
+        <v>76.19002728222212</v>
       </c>
       <c r="M167">
-        <v>39.97055204778961</v>
-      </c>
-    </row>
-    <row r="168" spans="1:14">
+        <v>72.14630276362389</v>
+      </c>
+      <c r="O167" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15">
       <c r="A168" s="1" t="s">
         <v>180</v>
       </c>
       <c r="B168">
-        <v>14.24808311462402</v>
+        <v>15.81821918487549</v>
       </c>
       <c r="C168">
-        <v>14.32032585144043</v>
+        <v>15.92086696624756</v>
       </c>
       <c r="D168">
-        <v>14.00468444824219</v>
+        <v>15.45781898498535</v>
       </c>
       <c r="E168">
-        <v>14.15904521942139</v>
+        <v>15.7552433013916</v>
       </c>
       <c r="F168">
-        <v>0</v>
+        <v>51984768</v>
       </c>
       <c r="G168">
-        <v>14.63198684850419</v>
+        <v>15.10637191553212</v>
       </c>
       <c r="H168">
-        <v>14.74553852081299</v>
+        <v>14.99658355712891</v>
       </c>
       <c r="I168">
-        <v>15.11815738677979</v>
+        <v>14.75526997248332</v>
       </c>
       <c r="J168">
-        <v>14.85069069418006</v>
+        <v>14.68774346562372</v>
       </c>
       <c r="L168">
-        <v>37.78592930664491</v>
+        <v>72.67295711724748</v>
       </c>
       <c r="M168">
-        <v>38.71726779240041</v>
-      </c>
-    </row>
-    <row r="169" spans="1:14">
+        <v>69.95254910565285</v>
+      </c>
+      <c r="O168" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15">
       <c r="A169" s="1" t="s">
         <v>181</v>
       </c>
       <c r="B169">
-        <v>14.15828609466553</v>
+        <v>15.75645542144775</v>
       </c>
       <c r="C169">
-        <v>14.27721214294434</v>
+        <v>15.76839923858643</v>
       </c>
       <c r="D169">
-        <v>13.9816083908081</v>
+        <v>15.3055305480957</v>
       </c>
       <c r="E169">
-        <v>14.02618026733398</v>
+        <v>15.61208057403564</v>
       </c>
       <c r="F169">
-        <v>9919648</v>
+        <v>20658752</v>
       </c>
       <c r="G169">
-        <v>14.57691352294326</v>
+        <v>15.15234542994153</v>
       </c>
       <c r="H169">
-        <v>14.66026568412781</v>
+        <v>15.05213861465454</v>
       </c>
       <c r="I169">
-        <v>15.06893631617228</v>
+        <v>14.80230175654093</v>
       </c>
       <c r="J169">
-        <v>14.83977002627482</v>
+        <v>14.69998634123183</v>
       </c>
       <c r="L169">
-        <v>34.74512669614771</v>
+        <v>64.94765115869929</v>
       </c>
       <c r="M169">
-        <v>36.83799649066264</v>
-      </c>
-    </row>
-    <row r="170" spans="1:14">
+        <v>65.07199223336329</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15">
       <c r="A170" s="1" t="s">
         <v>182</v>
       </c>
       <c r="B170">
-        <v>14.03040599822998</v>
+        <v>15.63130760192871</v>
       </c>
       <c r="C170">
-        <v>14.24785709381104</v>
+        <v>15.82103538513184</v>
       </c>
       <c r="D170">
-        <v>13.92731189727783</v>
+        <v>15.5377140045166</v>
       </c>
       <c r="E170">
-        <v>14.23567008972168</v>
+        <v>15.74259853363037</v>
       </c>
       <c r="F170">
-        <v>0</v>
+        <v>17768576</v>
       </c>
       <c r="G170">
-        <v>14.54589139265039</v>
+        <v>15.20600480300415</v>
       </c>
       <c r="H170">
-        <v>14.59696898460388</v>
+        <v>15.11457591056824</v>
       </c>
       <c r="I170">
-        <v>15.00896355311076</v>
+        <v>14.85550804138184</v>
       </c>
       <c r="J170">
-        <v>14.83176870261187</v>
+        <v>14.71379577424373</v>
       </c>
       <c r="L170">
-        <v>42.89641923477014</v>
+        <v>68.39361357585996</v>
       </c>
       <c r="M170">
-        <v>41.64730742864606</v>
-      </c>
-    </row>
-    <row r="171" spans="1:14">
+        <v>67.31117787458238</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15">
       <c r="A171" s="1" t="s">
         <v>183</v>
       </c>
       <c r="B171">
-        <v>14.23535251617432</v>
+        <v>15.74219036102295</v>
       </c>
       <c r="C171">
-        <v>14.23535251617432</v>
+        <v>15.74219036102295</v>
       </c>
       <c r="D171">
-        <v>13.96270656585693</v>
+        <v>15.1071138381958</v>
       </c>
       <c r="E171">
-        <v>14.01983737945557</v>
+        <v>15.39756393432617</v>
       </c>
       <c r="F171">
-        <v>0</v>
+        <v>39999872</v>
       </c>
       <c r="G171">
-        <v>14.49806830054177</v>
+        <v>15.22341926948797</v>
       </c>
       <c r="H171">
-        <v>14.52325868606567</v>
+        <v>15.16602921485901</v>
       </c>
       <c r="I171">
-        <v>14.94192371368408</v>
+        <v>14.89572801589966</v>
       </c>
       <c r="J171">
-        <v>14.82101464535152</v>
+        <v>14.72285230616535</v>
       </c>
       <c r="L171">
-        <v>37.47119240921841</v>
+        <v>52.92092644501742</v>
       </c>
       <c r="M171">
-        <v>38.40293711165079</v>
-      </c>
-    </row>
-    <row r="172" spans="1:14">
+        <v>56.92215557439334</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15">
       <c r="A172" s="1" t="s">
         <v>184</v>
       </c>
       <c r="B172">
-        <v>14.01997947692871</v>
+        <v>15.39976215362549</v>
       </c>
       <c r="C172">
-        <v>14.02603149414062</v>
+        <v>15.57510566711426</v>
       </c>
       <c r="D172">
-        <v>13.86475276947022</v>
+        <v>15.16756916046143</v>
       </c>
       <c r="E172">
-        <v>14.01847743988037</v>
+        <v>15.1989574432373</v>
       </c>
       <c r="F172">
-        <v>3363328</v>
+        <v>22993216</v>
       </c>
       <c r="G172">
-        <v>14.45446913139073</v>
+        <v>15.22119546710155</v>
       </c>
       <c r="H172">
-        <v>14.4544762134552</v>
+        <v>15.21206288337708</v>
       </c>
       <c r="I172">
-        <v>14.86021693547567</v>
+        <v>14.92632656097412</v>
       </c>
       <c r="J172">
-        <v>14.81038501349097</v>
+        <v>14.72915833447094</v>
       </c>
       <c r="L172">
-        <v>37.43762946343838</v>
+        <v>46.15873576692169</v>
       </c>
       <c r="M172">
-        <v>38.38264788686221</v>
-      </c>
-    </row>
-    <row r="173" spans="1:14">
+        <v>51.95163179376291</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15">
       <c r="A173" s="1" t="s">
         <v>185</v>
       </c>
       <c r="B173">
-        <v>14.01982498168945</v>
+        <v>15.19768524169922</v>
       </c>
       <c r="C173">
-        <v>14.04485988616943</v>
+        <v>15.79869937896728</v>
       </c>
       <c r="D173">
-        <v>13.7752161026001</v>
+        <v>15.18579006195068</v>
       </c>
       <c r="E173">
-        <v>13.84230327606201</v>
+        <v>15.74899673461914</v>
       </c>
       <c r="F173">
-        <v>4662496</v>
+        <v>46107136</v>
       </c>
       <c r="G173">
-        <v>14.39881768999721</v>
+        <v>15.26917740051224</v>
       </c>
       <c r="H173">
-        <v>14.36686358451843</v>
+        <v>15.27375288009643</v>
       </c>
       <c r="I173">
-        <v>14.78796952565511</v>
+        <v>14.98068577448527</v>
       </c>
       <c r="J173">
-        <v>14.79756273882304</v>
+        <v>14.74266612785039</v>
       </c>
       <c r="L173">
-        <v>33.11487289473066</v>
+        <v>61.49021012642586</v>
       </c>
       <c r="M173">
-        <v>35.74778827908613</v>
-      </c>
-    </row>
-    <row r="174" spans="1:14">
+        <v>61.87965165569793</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15">
       <c r="A174" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B174">
-        <v>13.84083843231201</v>
+        <v>15.74975967407227</v>
       </c>
       <c r="C174">
-        <v>13.88880348205566</v>
+        <v>15.7979326248169</v>
       </c>
       <c r="D174">
-        <v>13.54328060150146</v>
+        <v>15.48388957977295</v>
       </c>
       <c r="E174">
-        <v>13.5810546875</v>
+        <v>15.55893898010254</v>
       </c>
       <c r="F174">
-        <v>931104</v>
+        <v>17899200</v>
       </c>
       <c r="G174">
-        <v>14.3244755988611</v>
+        <v>15.29551936229317</v>
       </c>
       <c r="H174">
-        <v>14.26406373977661</v>
+        <v>15.31547346115112</v>
       </c>
       <c r="I174">
-        <v>14.71498963038127</v>
+        <v>15.0245805422465</v>
       </c>
       <c r="J174">
-        <v>14.78145004940155</v>
+        <v>14.75347768880737</v>
       </c>
       <c r="L174">
-        <v>27.7663331811164</v>
+        <v>55.36211183079563</v>
       </c>
       <c r="M174">
-        <v>32.21602989516892</v>
-      </c>
-      <c r="N174" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="175" spans="1:14">
+        <v>57.46152931024513</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15">
       <c r="A175" s="1" t="s">
         <v>187</v>
       </c>
       <c r="B175">
-        <v>13.58055400848389</v>
+        <v>15.55816841125488</v>
       </c>
       <c r="C175">
-        <v>13.82700538635254</v>
+        <v>16.86391448974609</v>
       </c>
       <c r="D175">
-        <v>13.53399658203125</v>
+        <v>15.55393981933594</v>
       </c>
       <c r="E175">
-        <v>13.78260231018066</v>
+        <v>16.66706848144531</v>
       </c>
       <c r="F175">
-        <v>655040</v>
+        <v>238671936</v>
       </c>
       <c r="G175">
-        <v>14.27521439079924</v>
+        <v>15.42020564585246</v>
       </c>
       <c r="H175">
-        <v>14.19492921829224</v>
+        <v>15.41880283355713</v>
       </c>
       <c r="I175">
-        <v>14.64817641576131</v>
+        <v>15.10394655863444</v>
       </c>
       <c r="J175">
-        <v>14.76822027802114</v>
+        <v>14.7788232622198</v>
       </c>
       <c r="L175">
-        <v>36.64717917484872</v>
+        <v>73.00723182706554</v>
       </c>
       <c r="M175">
-        <v>37.35784994786288</v>
-      </c>
-    </row>
-    <row r="176" spans="1:14">
+        <v>70.62891327854847</v>
+      </c>
+      <c r="O175" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15">
       <c r="A176" s="1" t="s">
         <v>188</v>
       </c>
       <c r="B176">
-        <v>13.78394889831543</v>
+        <v>16.66894149780273</v>
       </c>
       <c r="C176">
-        <v>13.86069774627686</v>
+        <v>16.98187637329102</v>
       </c>
       <c r="D176">
-        <v>13.73881149291992</v>
+        <v>16.53879928588867</v>
       </c>
       <c r="E176">
-        <v>13.76033782958984</v>
+        <v>16.94318389892578</v>
       </c>
       <c r="F176">
-        <v>0</v>
+        <v>168182528</v>
       </c>
       <c r="G176">
-        <v>14.2284074306893</v>
+        <v>15.55865821431367</v>
       </c>
       <c r="H176">
-        <v>14.12949266433716</v>
+        <v>15.53871488571167</v>
       </c>
       <c r="I176">
-        <v>14.58221356074015</v>
+        <v>15.18962020874023</v>
       </c>
       <c r="J176">
-        <v>14.75487084161807</v>
+        <v>14.80749029052054</v>
       </c>
       <c r="L176">
-        <v>36.09566442961518</v>
+        <v>75.69989365080318</v>
       </c>
       <c r="M176">
-        <v>37.02373975295125</v>
-      </c>
-    </row>
-    <row r="177" spans="1:13">
+        <v>72.88143580473606</v>
+      </c>
+      <c r="O176" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15">
       <c r="A177" s="1" t="s">
         <v>189</v>
       </c>
       <c r="B177">
-        <v>13.75775623321533</v>
+        <v>16.94234657287598</v>
       </c>
       <c r="C177">
-        <v>13.89686870574951</v>
+        <v>17.35688591003418</v>
       </c>
       <c r="D177">
-        <v>13.64844512939453</v>
+        <v>16.90988922119141</v>
       </c>
       <c r="E177">
-        <v>13.85088062286377</v>
+        <v>17.17571067810059</v>
       </c>
       <c r="F177">
-        <v>2935904</v>
+        <v>96935936</v>
       </c>
       <c r="G177">
-        <v>14.19408681179607</v>
+        <v>15.70566298374884</v>
       </c>
       <c r="H177">
-        <v>14.08731880187988</v>
+        <v>15.66443777084351</v>
       </c>
       <c r="I177">
-        <v>14.52166576385498</v>
+        <v>15.28411474227905</v>
       </c>
       <c r="J177">
-        <v>14.74289746123722</v>
+        <v>14.83885744797193</v>
       </c>
       <c r="L177">
-        <v>40.21212125479054</v>
+        <v>77.79814932856172</v>
       </c>
       <c r="M177">
-        <v>39.3974344959729</v>
-      </c>
-    </row>
-    <row r="178" spans="1:13">
+        <v>74.64495623044293</v>
+      </c>
+      <c r="O177" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15">
       <c r="A178" s="1" t="s">
         <v>190</v>
       </c>
       <c r="B178">
-        <v>13.85132122039795</v>
+        <v>17.18326187133789</v>
       </c>
       <c r="C178">
-        <v>13.90846824645996</v>
+        <v>17.96966552734375</v>
       </c>
       <c r="D178">
-        <v>13.73272514343262</v>
+        <v>17.18326187133789</v>
       </c>
       <c r="E178">
-        <v>13.73272514343262</v>
+        <v>17.8569507598877</v>
       </c>
       <c r="F178">
-        <v>23968</v>
+        <v>198180608</v>
       </c>
       <c r="G178">
-        <v>14.15214484194485</v>
+        <v>15.90123459976147</v>
       </c>
       <c r="H178">
-        <v>14.04690704345703</v>
+        <v>15.80732522010803</v>
       </c>
       <c r="I178">
-        <v>14.45869464874268</v>
+        <v>15.39445737202962</v>
       </c>
       <c r="J178">
-        <v>14.72951769543849</v>
+        <v>14.87883219382512</v>
       </c>
       <c r="L178">
-        <v>36.73788102359939</v>
+        <v>82.71687183329774</v>
       </c>
       <c r="M178">
-        <v>37.41552202085253</v>
-      </c>
-    </row>
-    <row r="179" spans="1:13">
+        <v>78.96153567178006</v>
+      </c>
+      <c r="O178" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15">
       <c r="A179" s="1" t="s">
         <v>191</v>
       </c>
       <c r="B179">
-        <v>13.73215198516846</v>
+        <v>17.85788536071777</v>
       </c>
       <c r="C179">
-        <v>14.16918754577637</v>
+        <v>18.20278549194336</v>
       </c>
       <c r="D179">
-        <v>13.72673797607422</v>
+        <v>17.77645492553711</v>
       </c>
       <c r="E179">
-        <v>14.16918754577637</v>
+        <v>18.12127494812012</v>
       </c>
       <c r="F179">
-        <v>25408192</v>
+        <v>118967040</v>
       </c>
       <c r="G179">
-        <v>14.1536941786568</v>
+        <v>16.10305644961225</v>
       </c>
       <c r="H179">
-        <v>14.01940336227417</v>
+        <v>15.96391367912292</v>
       </c>
       <c r="I179">
-        <v>14.40661300023397</v>
+        <v>15.51513388951619</v>
       </c>
       <c r="J179">
-        <v>14.72209610405223</v>
+        <v>14.92177845547141</v>
       </c>
       <c r="L179">
-        <v>53.45103417295651</v>
+        <v>84.24087056139359</v>
       </c>
       <c r="M179">
-        <v>47.85155709426564</v>
-      </c>
-    </row>
-    <row r="180" spans="1:13">
+        <v>80.35875860325422</v>
+      </c>
+      <c r="O179" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15">
       <c r="A180" s="1" t="s">
         <v>192</v>
       </c>
       <c r="B180">
-        <v>14.169358253479</v>
+        <v>18.12013626098633</v>
       </c>
       <c r="C180">
-        <v>14.20112705230713</v>
+        <v>18.16281127929688</v>
       </c>
       <c r="D180">
-        <v>13.99253940582275</v>
+        <v>17.85171508789062</v>
       </c>
       <c r="E180">
-        <v>14.20112705230713</v>
+        <v>17.85598754882812</v>
       </c>
       <c r="F180">
-        <v>4103648</v>
+        <v>72892672</v>
       </c>
       <c r="G180">
-        <v>14.15800625807956</v>
+        <v>16.26241382226824</v>
       </c>
       <c r="H180">
-        <v>14.0029619216919</v>
+        <v>16.10839018821716</v>
       </c>
       <c r="I180">
-        <v>14.36326376597087</v>
+        <v>15.62720505396525</v>
       </c>
       <c r="J180">
-        <v>14.71519585171124</v>
+        <v>14.96064215207216</v>
       </c>
       <c r="L180">
-        <v>54.44189842948888</v>
+        <v>76.61310150398944</v>
       </c>
       <c r="M180">
-        <v>48.52796132042172</v>
-      </c>
-    </row>
-    <row r="181" spans="1:13">
+        <v>74.97676976232178</v>
+      </c>
+      <c r="O180" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15">
       <c r="A181" s="1" t="s">
         <v>193</v>
       </c>
       <c r="B181">
-        <v>14.20168685913086</v>
+        <v>17.85018539428711</v>
       </c>
       <c r="C181">
-        <v>14.2797441482544</v>
+        <v>18.75689506530762</v>
       </c>
       <c r="D181">
-        <v>14.13094902038574</v>
+        <v>17.76711845397949</v>
       </c>
       <c r="E181">
-        <v>14.14640998840332</v>
+        <v>18.74750328063965</v>
       </c>
       <c r="F181">
-        <v>8054336</v>
+        <v>123757440</v>
       </c>
       <c r="G181">
-        <v>14.15695205174536</v>
+        <v>16.48833104575655</v>
       </c>
       <c r="H181">
-        <v>14.01326537132263</v>
+        <v>16.29551334381103</v>
       </c>
       <c r="I181">
-        <v>14.31834265391032</v>
+        <v>15.77317190170288</v>
       </c>
       <c r="J181">
-        <v>14.70766226411776</v>
+        <v>15.0107992531128</v>
       </c>
       <c r="L181">
-        <v>52.29642456172001</v>
+        <v>82.57733039076378</v>
       </c>
       <c r="M181">
-        <v>47.39382312433526</v>
-      </c>
-    </row>
-    <row r="182" spans="1:13">
+        <v>79.85872330199183</v>
+      </c>
+      <c r="O181" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15">
       <c r="A182" s="1" t="s">
         <v>194</v>
       </c>
       <c r="B182">
-        <v>14.1474723815918</v>
+        <v>18.74554634094238</v>
       </c>
       <c r="C182">
-        <v>14.18920707702637</v>
+        <v>18.78250694274902</v>
       </c>
       <c r="D182">
-        <v>14.06838893890381</v>
+        <v>18.66949844360352</v>
       </c>
       <c r="E182">
-        <v>14.07298851013184</v>
+        <v>18.67032432556152</v>
       </c>
       <c r="F182">
-        <v>4345952</v>
+        <v>5694848</v>
       </c>
       <c r="G182">
-        <v>14.14931900250776</v>
+        <v>16.68669407119337</v>
       </c>
       <c r="H182">
-        <v>14.01268815994263</v>
+        <v>16.46812014579773</v>
       </c>
       <c r="I182">
-        <v>14.27430470784505</v>
+        <v>15.91957324345907</v>
       </c>
       <c r="J182">
-        <v>14.69925598923053</v>
+        <v>15.05926978387371</v>
       </c>
       <c r="L182">
-        <v>49.36000553516367</v>
+        <v>80.57604051111649</v>
       </c>
       <c r="M182">
-        <v>45.84552046338342</v>
+        <v>78.43213430530392</v>
+      </c>
+      <c r="O182" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
